--- a/Iron_speciation_calculator_output.xlsx
+++ b/Iron_speciation_calculator_output.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="54">
   <si>
     <t>mc</t>
   </si>
@@ -147,22 +147,16 @@
     <t>sample_index</t>
   </si>
   <si>
-    <t>NM20ON179-NAB117</t>
+    <t>02As1</t>
   </si>
   <si>
-    <t>NY17-209-NAB117</t>
+    <t>01As1</t>
   </si>
   <si>
-    <t>AZKS052-NAB117</t>
+    <t>12As1</t>
   </si>
   <si>
-    <t>FOGO16-NAB117</t>
-  </si>
-  <si>
-    <t>TDC69-NAB117</t>
-  </si>
-  <si>
-    <t>NM20ON179-test_0</t>
+    <t>07As1</t>
   </si>
   <si>
     <t>IrvineBarager_1971</t>
@@ -547,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,100 +677,100 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>45.99257901104811</v>
+        <v>46.40125109697695</v>
       </c>
       <c r="D2">
-        <v>3.229701977006348</v>
+        <v>2.420590040865092</v>
       </c>
       <c r="E2">
-        <v>13.400129675328</v>
+        <v>10.10712522703128</v>
       </c>
       <c r="F2">
-        <v>6.14321842446081</v>
+        <v>9.50797376245559</v>
       </c>
       <c r="G2">
-        <v>4.746909864087288</v>
+        <v>3.931616760601037</v>
       </c>
       <c r="H2">
-        <v>0.1766141756581978</v>
+        <v>0.2477148872860304</v>
       </c>
       <c r="I2">
-        <v>7.845037102986988</v>
+        <v>13.08047586086059</v>
       </c>
       <c r="J2">
-        <v>13.1825052152457</v>
+        <v>11.57591220073824</v>
       </c>
       <c r="K2">
-        <v>2.418198041534207</v>
+        <v>1.944346277309799</v>
       </c>
       <c r="L2">
-        <v>2.301706967588109</v>
+        <v>0.4859677043911959</v>
       </c>
       <c r="M2">
-        <v>0.5251157545916819</v>
+        <v>0.1680899711086235</v>
       </c>
       <c r="N2">
-        <v>0.01898007982424957</v>
+        <v>0.1289362103755588</v>
       </c>
       <c r="O2">
-        <v>0.01930371064029922</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4103638691547883</v>
+        <v>0.2712470769099153</v>
       </c>
       <c r="V2">
-        <v>0.1904247260400677</v>
+        <v>0.3029010993801488</v>
       </c>
       <c r="W2">
-        <v>0.05492594121774192</v>
+        <v>0.1671624682588409</v>
       </c>
       <c r="X2">
-        <v>0.08725297154040836</v>
+        <v>0.1072593816037755</v>
       </c>
       <c r="Y2">
-        <v>0.2663281214074927</v>
+        <v>0.2710712555064244</v>
       </c>
       <c r="Z2">
-        <v>0.05541150411285038</v>
+        <v>0.1683905934263219</v>
       </c>
       <c r="AA2">
-        <v>0.02384207974196349</v>
+        <v>0.2514868567544528</v>
       </c>
       <c r="AB2">
-        <v>0.06930821157435635</v>
+        <v>0.1192299684869919</v>
       </c>
       <c r="AC2">
-        <v>0.1748951394357044</v>
+        <v>0.237576178278577</v>
       </c>
       <c r="AD2">
-        <v>0.02585084980597246</v>
+        <v>0.1915331803634908</v>
       </c>
       <c r="AE2">
-        <v>0.04411860112512343</v>
+        <v>0.03925032335641548</v>
       </c>
       <c r="AF2">
-        <v>0.05371023673129707</v>
+        <v>0.0401690356112529</v>
       </c>
       <c r="AG2">
-        <v>0.01760282771554728</v>
+        <v>0.04002387208304976</v>
       </c>
       <c r="AH2">
-        <v>0.02163478689685971</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.273786501829197E-14</v>
+        <v>1.702623190843052E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.01183598242041013</v>
+        <v>0.01293438816771192</v>
       </c>
       <c r="AO2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -784,100 +778,100 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.68177179603364</v>
+        <v>46.81924387149058</v>
       </c>
       <c r="D3">
-        <v>3.631463107361585</v>
+        <v>2.522850393167022</v>
       </c>
       <c r="E3">
-        <v>12.16771944047653</v>
+        <v>10.30629097358086</v>
       </c>
       <c r="F3">
-        <v>6.353244583792358</v>
+        <v>9.606126479167463</v>
       </c>
       <c r="G3">
-        <v>5.152642854505562</v>
+        <v>4.034649855324201</v>
       </c>
       <c r="H3">
-        <v>0.2062240386271719</v>
+        <v>0.2144606348923905</v>
       </c>
       <c r="I3">
-        <v>8.392976375483824</v>
+        <v>12.1173932020518</v>
       </c>
       <c r="J3">
-        <v>16.60135904319044</v>
+        <v>11.77460487390304</v>
       </c>
       <c r="K3">
-        <v>2.520243920315181</v>
+        <v>1.836304884468063</v>
       </c>
       <c r="L3">
-        <v>2.196931404599352</v>
+        <v>0.4386405467875948</v>
       </c>
       <c r="M3">
-        <v>1.027012730118587</v>
+        <v>0.198328603764105</v>
       </c>
       <c r="N3">
-        <v>0.02907988877836866</v>
+        <v>0.131105681402885</v>
       </c>
       <c r="O3">
-        <v>0.03933081671740423</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.422551647640741</v>
+        <v>0.2743134760022283</v>
       </c>
       <c r="V3">
-        <v>0.318566886152903</v>
+        <v>0.3170886376937061</v>
       </c>
       <c r="W3">
-        <v>0.1765504943921322</v>
+        <v>0.1052162505066029</v>
       </c>
       <c r="X3">
-        <v>0.1181661600403538</v>
+        <v>0.08965218228267149</v>
       </c>
       <c r="Y3">
-        <v>0.4694730914796257</v>
+        <v>0.2217512602272371</v>
       </c>
       <c r="Z3">
-        <v>0.1783021490409142</v>
+        <v>0.1060180565139827</v>
       </c>
       <c r="AA3">
-        <v>0.01901115598880106</v>
+        <v>0.1751417875963521</v>
       </c>
       <c r="AB3">
-        <v>0.2476556977236651</v>
+        <v>0.1138036667221972</v>
       </c>
       <c r="AC3">
-        <v>0.2990704582469386</v>
+        <v>0.1263634557854486</v>
       </c>
       <c r="AD3">
-        <v>0.1122044138851482</v>
+        <v>0.1406064530606249</v>
       </c>
       <c r="AE3">
-        <v>0.03122748282129479</v>
+        <v>0.04779043029357298</v>
       </c>
       <c r="AF3">
-        <v>0.08726564819328239</v>
+        <v>0.0299412984132623</v>
       </c>
       <c r="AG3">
-        <v>0.02525284573768597</v>
+        <v>0.0775604450643973</v>
       </c>
       <c r="AH3">
-        <v>0.03511088050061986</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.374211034989623E-14</v>
+        <v>1.752516044585793E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.02314639506546141</v>
+        <v>0.008459666467997113</v>
       </c>
       <c r="AO3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -885,100 +879,100 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.30028959894115</v>
+        <v>46.36051315045085</v>
       </c>
       <c r="D4">
-        <v>2.953764329764003</v>
+        <v>2.400352738597469</v>
       </c>
       <c r="E4">
-        <v>14.61158398199606</v>
+        <v>10.07148434659838</v>
       </c>
       <c r="F4">
-        <v>6.268028184859134</v>
+        <v>8.87634760890038</v>
       </c>
       <c r="G4">
-        <v>4.468573916199094</v>
+        <v>3.911128364325901</v>
       </c>
       <c r="H4">
-        <v>0.1488233489427397</v>
+        <v>0.2669943006454712</v>
       </c>
       <c r="I4">
-        <v>8.410120122712083</v>
+        <v>13.87351355946016</v>
       </c>
       <c r="J4">
-        <v>12.2134216438165</v>
+        <v>11.48609026728654</v>
       </c>
       <c r="K4">
-        <v>2.451960161656922</v>
+        <v>1.955591263640985</v>
       </c>
       <c r="L4">
-        <v>0.6117205534478881</v>
+        <v>0.4588980499838507</v>
       </c>
       <c r="M4">
-        <v>0.5184705320334969</v>
+        <v>0.2095015975079062</v>
       </c>
       <c r="N4">
-        <v>0.01479008823635915</v>
+        <v>0.129584752602119</v>
       </c>
       <c r="O4">
-        <v>0.02845353739456256</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.3910706639858836</v>
+        <v>0.2839695918085446</v>
       </c>
       <c r="V4">
-        <v>0.2280515130591074</v>
+        <v>0.3218654339171445</v>
       </c>
       <c r="W4">
-        <v>0.1429538348359718</v>
+        <v>0.09762872594536166</v>
       </c>
       <c r="X4">
-        <v>0.1263443937094102</v>
+        <v>0.09141900751820026</v>
       </c>
       <c r="Y4">
-        <v>0.3105038774469127</v>
+        <v>0.2273017856351404</v>
       </c>
       <c r="Z4">
-        <v>0.1441441061112424</v>
+        <v>0.09833808345464815</v>
       </c>
       <c r="AA4">
-        <v>0.03197925740243501</v>
+        <v>0.2680128162525701</v>
       </c>
       <c r="AB4">
-        <v>0.09614184388650152</v>
+        <v>0.1169684419622806</v>
       </c>
       <c r="AC4">
-        <v>0.1454638502188121</v>
+        <v>0.2375354028677907</v>
       </c>
       <c r="AD4">
-        <v>0.1517477293306136</v>
+        <v>0.2105420872861475</v>
       </c>
       <c r="AE4">
-        <v>0.03962427637737802</v>
+        <v>0.05798331350257083</v>
       </c>
       <c r="AF4">
-        <v>0.04819592230094608</v>
+        <v>0.03939837712623417</v>
       </c>
       <c r="AG4">
-        <v>0.01479296050235494</v>
+        <v>0.04037641423194235</v>
       </c>
       <c r="AH4">
-        <v>0.02515451347191892</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.829578700002404E-14</v>
+        <v>1.699059971330551E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.0171012095627962</v>
+        <v>0.008651102415233048</v>
       </c>
       <c r="AO4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -986,302 +980,100 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.5291599871608</v>
+        <v>46.68517763421359</v>
       </c>
       <c r="D5">
-        <v>3.256010718464124</v>
+        <v>2.522304269983925</v>
       </c>
       <c r="E5">
-        <v>13.48172481173721</v>
+        <v>10.35840673458481</v>
       </c>
       <c r="F5">
-        <v>7.097394984919508</v>
+        <v>9.106342615109641</v>
       </c>
       <c r="G5">
-        <v>4.773694214534396</v>
+        <v>4.034056754169046</v>
       </c>
       <c r="H5">
-        <v>0.2028382597414783</v>
+        <v>0.2441650481225052</v>
       </c>
       <c r="I5">
-        <v>8.422963892042629</v>
+        <v>12.56857650007435</v>
       </c>
       <c r="J5">
-        <v>14.36057777247273</v>
+        <v>11.68685806064858</v>
       </c>
       <c r="K5">
-        <v>1.872783934517991</v>
+        <v>1.985886728315326</v>
       </c>
       <c r="L5">
-        <v>1.095031067952396</v>
+        <v>0.4795399888608706</v>
       </c>
       <c r="M5">
-        <v>0.8561233168199731</v>
+        <v>0.2091244756919449</v>
       </c>
       <c r="N5">
-        <v>0.01759841713413022</v>
+        <v>0.1195611902254156</v>
       </c>
       <c r="O5">
-        <v>0.0340986225026341</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.3772186157084423</v>
+        <v>0.2850320034072686</v>
       </c>
       <c r="V5">
-        <v>0.2811335219612044</v>
+        <v>0.2625327509713574</v>
       </c>
       <c r="W5">
-        <v>0.2020370631130116</v>
+        <v>0.1814401097035419</v>
       </c>
       <c r="X5">
-        <v>0.1215545956704353</v>
+        <v>0.1048443596996793</v>
       </c>
       <c r="Y5">
-        <v>0.3250809504031639</v>
+        <v>0.2266540932637096</v>
       </c>
       <c r="Z5">
-        <v>0.2038834564931381</v>
+        <v>0.1828104424129406</v>
       </c>
       <c r="AA5">
-        <v>0.04671502619321211</v>
+        <v>0.237532684614072</v>
       </c>
       <c r="AB5">
-        <v>0.09500497985369503</v>
+        <v>0.1085983768033423</v>
       </c>
       <c r="AC5">
-        <v>0.1668668026791516</v>
+        <v>0.2017179060449441</v>
       </c>
       <c r="AD5">
-        <v>0.1193465285429784</v>
+        <v>0.1352735046199978</v>
       </c>
       <c r="AE5">
-        <v>0.04128413392135877</v>
+        <v>0.05067242348743125</v>
       </c>
       <c r="AF5">
-        <v>0.04433914442637715</v>
+        <v>0.04895505557704492</v>
       </c>
       <c r="AG5">
-        <v>0.01389565156620716</v>
+        <v>0.02999416491314458</v>
       </c>
       <c r="AH5">
-        <v>0.02988104607991522</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.793113925876741E-14</v>
+        <v>1.737853609538095E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.0188774703143908</v>
+        <v>0.01371113210220415</v>
       </c>
       <c r="AO5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.71223927004047</v>
-      </c>
-      <c r="D6">
-        <v>3.356797521795913</v>
-      </c>
-      <c r="E6">
-        <v>13.06138429030047</v>
-      </c>
-      <c r="F6">
-        <v>7.427417079297332</v>
-      </c>
-      <c r="G6">
-        <v>4.875483396125141</v>
-      </c>
-      <c r="H6">
-        <v>0.1573713000778181</v>
-      </c>
-      <c r="I6">
-        <v>7.840706356106687</v>
-      </c>
-      <c r="J6">
-        <v>12.99444503126906</v>
-      </c>
-      <c r="K6">
-        <v>2.354939776044674</v>
-      </c>
-      <c r="L6">
-        <v>1.682706013767897</v>
-      </c>
-      <c r="M6">
-        <v>0.5008400130985707</v>
-      </c>
-      <c r="N6">
-        <v>0.0201921932589271</v>
-      </c>
-      <c r="O6">
-        <v>0.01547775881703635</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.371692968888357</v>
-      </c>
-      <c r="V6">
-        <v>0.259853858996362</v>
-      </c>
-      <c r="W6">
-        <v>0.1455411640400337</v>
-      </c>
-      <c r="X6">
-        <v>0.1293911388368561</v>
-      </c>
-      <c r="Y6">
-        <v>0.4005079020949331</v>
-      </c>
-      <c r="Z6">
-        <v>0.1469046779786033</v>
-      </c>
-      <c r="AA6">
-        <v>0.03172173479552917</v>
-      </c>
-      <c r="AB6">
-        <v>0.08277376311539841</v>
-      </c>
-      <c r="AC6">
-        <v>0.1313143180887048</v>
-      </c>
-      <c r="AD6">
-        <v>0.08939898557781778</v>
-      </c>
-      <c r="AE6">
-        <v>0.02645789274471861</v>
-      </c>
-      <c r="AF6">
-        <v>0.06929913385551957</v>
-      </c>
-      <c r="AG6">
-        <v>0.01781303043764457</v>
-      </c>
-      <c r="AH6">
-        <v>0.01442362158124514</v>
-      </c>
-      <c r="AI6">
-        <v>2.273875333759449E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.01709047285185832</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.00669960009094</v>
-      </c>
-      <c r="D7">
-        <v>3.230724286248305</v>
-      </c>
-      <c r="E7">
-        <v>13.40259344648632</v>
-      </c>
-      <c r="F7">
-        <v>6.134683536840488</v>
-      </c>
-      <c r="G7">
-        <v>4.747939812998445</v>
-      </c>
-      <c r="H7">
-        <v>0.1767294318864507</v>
-      </c>
-      <c r="I7">
-        <v>7.845751021358631</v>
-      </c>
-      <c r="J7">
-        <v>13.1892550710002</v>
-      </c>
-      <c r="K7">
-        <v>2.419107637724152</v>
-      </c>
-      <c r="L7">
-        <v>2.303430734957711</v>
-      </c>
-      <c r="M7">
-        <v>0.5242089156722531</v>
-      </c>
-      <c r="N7">
-        <v>0.01887650473610222</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4107518447940796</v>
-      </c>
-      <c r="V7">
-        <v>0.1881687748567729</v>
-      </c>
-      <c r="W7">
-        <v>0.05382034767451862</v>
-      </c>
-      <c r="X7">
-        <v>0.08955799375184953</v>
-      </c>
-      <c r="Y7">
-        <v>0.2656051591343873</v>
-      </c>
-      <c r="Z7">
-        <v>0.05429731069911058</v>
-      </c>
-      <c r="AA7">
-        <v>0.02401066147539358</v>
-      </c>
-      <c r="AB7">
-        <v>0.06982562752562159</v>
-      </c>
-      <c r="AC7">
-        <v>0.1771232333396933</v>
-      </c>
-      <c r="AD7">
-        <v>0.0261420622795787</v>
-      </c>
-      <c r="AE7">
-        <v>0.04443929717200779</v>
-      </c>
-      <c r="AF7">
-        <v>0.05284121758747828</v>
-      </c>
-      <c r="AG7">
-        <v>0.01757566007099378</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.685817981926668E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.01172686802252335</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1427,100 +1219,100 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>46.03015535731027</v>
+        <v>46.37399198539121</v>
       </c>
       <c r="D2">
-        <v>3.232342593787232</v>
+        <v>2.419166688677054</v>
       </c>
       <c r="E2">
-        <v>13.41107585316557</v>
+        <v>10.10121478860798</v>
       </c>
       <c r="F2">
-        <v>6.830399495938497</v>
+        <v>9.18063769809995</v>
       </c>
       <c r="G2">
-        <v>3.986968016661891</v>
+        <v>4.309946056524244</v>
       </c>
       <c r="H2">
-        <v>0.1767577939351098</v>
+        <v>0.2474697875884287</v>
       </c>
       <c r="I2">
-        <v>7.85144683358071</v>
+        <v>13.07283161059307</v>
       </c>
       <c r="J2">
-        <v>13.19323841016012</v>
+        <v>11.5690662960294</v>
       </c>
       <c r="K2">
-        <v>2.420174061046612</v>
+        <v>1.943146870212107</v>
       </c>
       <c r="L2">
-        <v>2.303585593116893</v>
+        <v>0.4856800108805349</v>
       </c>
       <c r="M2">
-        <v>0.5255419948638131</v>
+        <v>0.1679902519276692</v>
       </c>
       <c r="N2">
-        <v>0.01899518623436957</v>
+        <v>0.1288579554683369</v>
       </c>
       <c r="O2">
-        <v>0.01931881019891307</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.3443772920042038</v>
+        <v>0.2969785556332933</v>
       </c>
       <c r="V2">
-        <v>0.2094718809502676</v>
+        <v>0.3183623301192639</v>
       </c>
       <c r="W2">
-        <v>0.05542198569315065</v>
+        <v>0.1671158505499437</v>
       </c>
       <c r="X2">
-        <v>0.09064927352661083</v>
+        <v>0.1118077205761048</v>
       </c>
       <c r="Y2">
-        <v>0.1923776390361488</v>
+        <v>0.166072970100662</v>
       </c>
       <c r="Z2">
-        <v>0.09898119949616591</v>
+        <v>0.086774902877893</v>
       </c>
       <c r="AA2">
-        <v>0.02385905070331814</v>
+        <v>0.2511489383359328</v>
       </c>
       <c r="AB2">
-        <v>0.07096103487054332</v>
+        <v>0.1265707587279734</v>
       </c>
       <c r="AC2">
-        <v>0.1740124217172763</v>
+        <v>0.2365049442417583</v>
       </c>
       <c r="AD2">
-        <v>0.02630264369946465</v>
+        <v>0.1908823999947046</v>
       </c>
       <c r="AE2">
-        <v>0.04426967456893209</v>
+        <v>0.03921315836097464</v>
       </c>
       <c r="AF2">
-        <v>0.05373644617620913</v>
+        <v>0.04014381460558501</v>
       </c>
       <c r="AG2">
-        <v>0.01761677114240467</v>
+        <v>0.03999256530443875</v>
       </c>
       <c r="AH2">
-        <v>0.02165092036005319</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.77089749722881E-14</v>
+        <v>1.710514881754912E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.001421506732382074</v>
+        <v>0.003963491760212714</v>
       </c>
       <c r="AO2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1528,100 +1320,100 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.73409819518443</v>
+        <v>46.81326441436943</v>
       </c>
       <c r="D3">
-        <v>3.636023874392565</v>
+        <v>2.52254088363176</v>
       </c>
       <c r="E3">
-        <v>12.18300850393942</v>
+        <v>10.3050492283953</v>
       </c>
       <c r="F3">
-        <v>7.402025279587475</v>
+        <v>9.312636797257696</v>
       </c>
       <c r="G3">
-        <v>3.992943109929977</v>
+        <v>4.338999746906117</v>
       </c>
       <c r="H3">
-        <v>0.206482913328255</v>
+        <v>0.2143917857456901</v>
       </c>
       <c r="I3">
-        <v>8.403442706943032</v>
+        <v>12.11592571307462</v>
       </c>
       <c r="J3">
-        <v>16.62209877563457</v>
+        <v>11.77317059847648</v>
       </c>
       <c r="K3">
-        <v>2.523392974862028</v>
+        <v>1.836048367759649</v>
       </c>
       <c r="L3">
-        <v>2.199692938557613</v>
+        <v>0.4385841854842176</v>
       </c>
       <c r="M3">
-        <v>1.028295062859453</v>
+        <v>0.1983037532901952</v>
       </c>
       <c r="N3">
-        <v>0.02911631575922751</v>
+        <v>0.1310845256088418</v>
       </c>
       <c r="O3">
-        <v>0.03937934902195561</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.3268281255860481</v>
+        <v>0.2954052314949598</v>
       </c>
       <c r="V3">
-        <v>0.3479897386273429</v>
+        <v>0.3061933040050161</v>
       </c>
       <c r="W3">
-        <v>0.1772307318670659</v>
+        <v>0.1054159220864233</v>
       </c>
       <c r="X3">
-        <v>0.1264469601089073</v>
+        <v>0.09615195481097098</v>
       </c>
       <c r="Y3">
-        <v>0.3309309860998603</v>
+        <v>0.1568338188760992</v>
       </c>
       <c r="Z3">
-        <v>0.1577241268167864</v>
+        <v>0.07363712916496522</v>
       </c>
       <c r="AA3">
-        <v>0.0190471854229931</v>
+        <v>0.175051512102228</v>
       </c>
       <c r="AB3">
-        <v>0.2471806518265853</v>
+        <v>0.1201548972093049</v>
       </c>
       <c r="AC3">
-        <v>0.2989470059954447</v>
+        <v>0.1310446395690676</v>
       </c>
       <c r="AD3">
-        <v>0.1123269668176997</v>
+        <v>0.1402705675702768</v>
       </c>
       <c r="AE3">
-        <v>0.03235730737541821</v>
+        <v>0.04777564383840277</v>
       </c>
       <c r="AF3">
-        <v>0.08736395095444163</v>
+        <v>0.02993865194858028</v>
       </c>
       <c r="AG3">
-        <v>0.02528476238684835</v>
+        <v>0.07753775324725595</v>
       </c>
       <c r="AH3">
-        <v>0.03515331692947062</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.800869790996378E-14</v>
+        <v>1.731059405772862E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.002847419166296272</v>
+        <v>0.003123390013126643</v>
       </c>
       <c r="AO3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1629,100 +1421,100 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.34599681429903</v>
+        <v>46.38203788961731</v>
       </c>
       <c r="D4">
-        <v>2.956620041123452</v>
+        <v>2.401474661113876</v>
       </c>
       <c r="E4">
-        <v>14.62569906239061</v>
+        <v>10.07620406936118</v>
       </c>
       <c r="F4">
-        <v>7.057215997698528</v>
+        <v>8.681550012811032</v>
       </c>
       <c r="G4">
-        <v>3.59319512698859</v>
+        <v>4.065528891383118</v>
       </c>
       <c r="H4">
-        <v>0.1489656019164958</v>
+        <v>0.2670171336709245</v>
       </c>
       <c r="I4">
-        <v>8.418241990497123</v>
+        <v>13.88001324837146</v>
       </c>
       <c r="J4">
-        <v>12.22520402676729</v>
+        <v>11.49138975204505</v>
       </c>
       <c r="K4">
-        <v>2.45429656657508</v>
+        <v>1.956433368214236</v>
       </c>
       <c r="L4">
-        <v>0.6123106815258188</v>
+        <v>0.4591077669900552</v>
       </c>
       <c r="M4">
-        <v>0.5189691975538487</v>
+        <v>0.2095977903066059</v>
       </c>
       <c r="N4">
-        <v>0.01480427781859035</v>
+        <v>0.1296454161151531</v>
       </c>
       <c r="O4">
-        <v>0.02848061484554228</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.3142126912411817</v>
+        <v>0.2964644555043784</v>
       </c>
       <c r="V4">
-        <v>0.2486128216225243</v>
+        <v>0.3323600587575798</v>
       </c>
       <c r="W4">
-        <v>0.1432551679857628</v>
+        <v>0.09794743902636309</v>
       </c>
       <c r="X4">
-        <v>0.1295831388157636</v>
+        <v>0.09779865874223936</v>
       </c>
       <c r="Y4">
-        <v>0.2141171911061264</v>
+        <v>0.1704645776787124</v>
       </c>
       <c r="Z4">
-        <v>0.1014800619089057</v>
+        <v>0.08669152693699551</v>
       </c>
       <c r="AA4">
-        <v>0.03200474660767276</v>
+        <v>0.2679473612113705</v>
       </c>
       <c r="AB4">
-        <v>0.09738303547590103</v>
+        <v>0.1261827618895493</v>
       </c>
       <c r="AC4">
-        <v>0.1461697400612301</v>
+        <v>0.2369112187118468</v>
       </c>
       <c r="AD4">
-        <v>0.1514467111062915</v>
+        <v>0.2100628347340282</v>
       </c>
       <c r="AE4">
-        <v>0.03966776361188763</v>
+        <v>0.0579922706771255</v>
       </c>
       <c r="AF4">
-        <v>0.04822889476510571</v>
+        <v>0.03941331396616275</v>
       </c>
       <c r="AG4">
-        <v>0.0148071926634502</v>
+        <v>0.04039538708032482</v>
       </c>
       <c r="AH4">
-        <v>0.02517781469961246</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.859582769372061E-14</v>
+        <v>1.745007289838612E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.003155902471806631</v>
+        <v>0.004386495901354229</v>
       </c>
       <c r="AO4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1730,302 +1522,100 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.57673385915697</v>
+        <v>46.68484645836826</v>
       </c>
       <c r="D5">
-        <v>3.259494189354666</v>
+        <v>2.522284741261963</v>
       </c>
       <c r="E5">
-        <v>13.49616377761739</v>
+        <v>10.35834709460729</v>
       </c>
       <c r="F5">
-        <v>7.965086559130494</v>
+        <v>8.916514026049111</v>
       </c>
       <c r="G5">
-        <v>3.811786790228465</v>
+        <v>4.224626700849934</v>
       </c>
       <c r="H5">
-        <v>0.203052904173203</v>
+        <v>0.2440812534526589</v>
       </c>
       <c r="I5">
-        <v>8.431985579220081</v>
+        <v>12.56850738374331</v>
       </c>
       <c r="J5">
-        <v>14.37593384269126</v>
+        <v>11.68673621475946</v>
       </c>
       <c r="K5">
-        <v>1.874769576838412</v>
+        <v>1.985842388597484</v>
       </c>
       <c r="L5">
-        <v>1.096202701280517</v>
+        <v>0.4795336481463804</v>
       </c>
       <c r="M5">
-        <v>0.8570392018014592</v>
+        <v>0.209119863372052</v>
       </c>
       <c r="N5">
-        <v>0.01761681603224267</v>
+        <v>0.1195602267921007</v>
       </c>
       <c r="O5">
-        <v>0.03413420247483663</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.3010135019030398</v>
+        <v>0.2988983453278298</v>
       </c>
       <c r="V5">
-        <v>0.284886340438087</v>
+        <v>0.2746385314658141</v>
       </c>
       <c r="W5">
-        <v>0.2023588511488513</v>
+        <v>0.1814722057065161</v>
       </c>
       <c r="X5">
-        <v>0.1262609568454369</v>
+        <v>0.107700011427534</v>
       </c>
       <c r="Y5">
-        <v>0.2030268772038493</v>
+        <v>0.1012235010373134</v>
       </c>
       <c r="Z5">
-        <v>0.08905446586797623</v>
+        <v>0.0567866212660155</v>
       </c>
       <c r="AA5">
-        <v>0.04675634640421462</v>
+        <v>0.2373810949899291</v>
       </c>
       <c r="AB5">
-        <v>0.09746449988872895</v>
+        <v>0.112996343495805</v>
       </c>
       <c r="AC5">
-        <v>0.1688135323401531</v>
+        <v>0.2004696840687543</v>
       </c>
       <c r="AD5">
-        <v>0.1192506051440566</v>
+        <v>0.134872597433691</v>
       </c>
       <c r="AE5">
-        <v>0.04138895620198355</v>
+        <v>0.05065087185252019</v>
       </c>
       <c r="AF5">
-        <v>0.04441909586729888</v>
+        <v>0.04894181620598381</v>
       </c>
       <c r="AG5">
-        <v>0.01390991996671437</v>
+        <v>0.02999438013402426</v>
       </c>
       <c r="AH5">
-        <v>0.02991156786654367</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.796602587141006E-14</v>
+        <v>2.196544792543624E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.002644077638921561</v>
+        <v>0.002985538245656617</v>
       </c>
       <c r="AO5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.7400264854532</v>
-      </c>
-      <c r="D6">
-        <v>3.35884093396339</v>
-      </c>
-      <c r="E6">
-        <v>13.06932447319737</v>
-      </c>
-      <c r="F6">
-        <v>7.933498289638418</v>
-      </c>
-      <c r="G6">
-        <v>4.316094278029611</v>
-      </c>
-      <c r="H6">
-        <v>0.1574665461014804</v>
-      </c>
-      <c r="I6">
-        <v>7.84547829772127</v>
-      </c>
-      <c r="J6">
-        <v>13.00234652398042</v>
-      </c>
-      <c r="K6">
-        <v>2.356362622503294</v>
-      </c>
-      <c r="L6">
-        <v>1.683730897052041</v>
-      </c>
-      <c r="M6">
-        <v>0.5011396725227357</v>
-      </c>
-      <c r="N6">
-        <v>0.02020404835755259</v>
-      </c>
-      <c r="O6">
-        <v>0.01548693147922716</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.3286799003871601</v>
-      </c>
-      <c r="V6">
-        <v>0.2833082160154073</v>
-      </c>
-      <c r="W6">
-        <v>0.1459345673985436</v>
-      </c>
-      <c r="X6">
-        <v>0.1334511376675645</v>
-      </c>
-      <c r="Y6">
-        <v>0.2849488743987252</v>
-      </c>
-      <c r="Z6">
-        <v>0.1353180563237997</v>
-      </c>
-      <c r="AA6">
-        <v>0.03174254527321844</v>
-      </c>
-      <c r="AB6">
-        <v>0.08557498946072097</v>
-      </c>
-      <c r="AC6">
-        <v>0.1354717200165009</v>
-      </c>
-      <c r="AD6">
-        <v>0.08941240861670691</v>
-      </c>
-      <c r="AE6">
-        <v>0.02692302822913827</v>
-      </c>
-      <c r="AF6">
-        <v>0.06931839524917625</v>
-      </c>
-      <c r="AG6">
-        <v>0.0178234755781281</v>
-      </c>
-      <c r="AH6">
-        <v>0.01443172265645545</v>
-      </c>
-      <c r="AI6">
-        <v>2.265777366334047E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.002217573569751889</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.04571149550657</v>
-      </c>
-      <c r="D7">
-        <v>3.233465302863924</v>
-      </c>
-      <c r="E7">
-        <v>13.4139586599215</v>
-      </c>
-      <c r="F7">
-        <v>6.822650579617772</v>
-      </c>
-      <c r="G7">
-        <v>3.984445876037425</v>
-      </c>
-      <c r="H7">
-        <v>0.1768788447272438</v>
-      </c>
-      <c r="I7">
-        <v>7.852403756018712</v>
-      </c>
-      <c r="J7">
-        <v>13.20040106230981</v>
-      </c>
-      <c r="K7">
-        <v>2.421159622747139</v>
-      </c>
-      <c r="L7">
-        <v>2.305382485774949</v>
-      </c>
-      <c r="M7">
-        <v>0.5246501571774281</v>
-      </c>
-      <c r="N7">
-        <v>0.01889215729753921</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.3444918542864144</v>
-      </c>
-      <c r="V7">
-        <v>0.2074105813896723</v>
-      </c>
-      <c r="W7">
-        <v>0.05429968557735966</v>
-      </c>
-      <c r="X7">
-        <v>0.09319085848433259</v>
-      </c>
-      <c r="Y7">
-        <v>0.1936857082115693</v>
-      </c>
-      <c r="Z7">
-        <v>0.0992136718205601</v>
-      </c>
-      <c r="AA7">
-        <v>0.02403050881541486</v>
-      </c>
-      <c r="AB7">
-        <v>0.07142136897797544</v>
-      </c>
-      <c r="AC7">
-        <v>0.1761929058970249</v>
-      </c>
-      <c r="AD7">
-        <v>0.02662189407114962</v>
-      </c>
-      <c r="AE7">
-        <v>0.04461361008671599</v>
-      </c>
-      <c r="AF7">
-        <v>0.05286396807602145</v>
-      </c>
-      <c r="AG7">
-        <v>0.01759002828608322</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.689886832268045E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.001454409167951762</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +1625,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2171,106 +1761,106 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>45.99991337383145</v>
+        <v>46.53564379793721</v>
       </c>
       <c r="D2">
-        <v>3.230244638675373</v>
+        <v>2.427651817436282</v>
       </c>
       <c r="E2">
-        <v>13.40216627225584</v>
+        <v>10.13632325423388</v>
       </c>
       <c r="F2">
-        <v>5.747338941037818</v>
+        <v>11.55502950569745</v>
       </c>
       <c r="G2">
-        <v>5.128431998763789</v>
+        <v>1.633733063225733</v>
       </c>
       <c r="H2">
-        <v>0.1766430243814224</v>
+        <v>0.2484300341037391</v>
       </c>
       <c r="I2">
-        <v>7.846328147153491</v>
+        <v>13.11842770505383</v>
       </c>
       <c r="J2">
-        <v>13.18467021517181</v>
+        <v>11.6094950075802</v>
       </c>
       <c r="K2">
-        <v>2.41859403085302</v>
+        <v>1.949981951272373</v>
       </c>
       <c r="L2">
-        <v>2.302182912417014</v>
+        <v>0.4873980931665618</v>
       </c>
       <c r="M2">
-        <v>0.5251964292411428</v>
+        <v>0.1685756020380119</v>
       </c>
       <c r="N2">
-        <v>0.01898316484663787</v>
+        <v>0.129310168254729</v>
       </c>
       <c r="O2">
-        <v>0.01930685137118157</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4453666413917916</v>
+        <v>0.112872472004348</v>
       </c>
       <c r="R2">
-        <v>0.4015110193159243</v>
+        <v>0.06361906013952436</v>
       </c>
       <c r="V2">
-        <v>0.1937094723229428</v>
+        <v>0.3022411892509549</v>
       </c>
       <c r="W2">
-        <v>0.05519144017482206</v>
+        <v>0.1681140696953336</v>
       </c>
       <c r="X2">
-        <v>0.0879492258796135</v>
+        <v>0.1074434778601967</v>
       </c>
       <c r="Y2">
-        <v>0.152424136209958</v>
+        <v>0.1905459131944891</v>
       </c>
       <c r="Z2">
-        <v>0.1120141856477805</v>
+        <v>0.02764904669937218</v>
       </c>
       <c r="AA2">
-        <v>0.02384583530724203</v>
+        <v>0.2522101012929984</v>
       </c>
       <c r="AB2">
-        <v>0.06967523817014989</v>
+        <v>0.1193924765313485</v>
       </c>
       <c r="AC2">
-        <v>0.1749891976817902</v>
+        <v>0.2380138369612985</v>
       </c>
       <c r="AD2">
-        <v>0.02590761802642818</v>
+        <v>0.1920424153708386</v>
       </c>
       <c r="AE2">
-        <v>0.0441444410668695</v>
+        <v>0.0393611457066524</v>
       </c>
       <c r="AF2">
-        <v>0.05371953658461166</v>
+        <v>0.04028398854643625</v>
       </c>
       <c r="AG2">
-        <v>0.01760568058771888</v>
+        <v>0.04013946376958861</v>
       </c>
       <c r="AH2">
-        <v>0.02163823928369064</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.797389412223929E-14</v>
+        <v>2.224418715337033E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.002230512691754891</v>
+        <v>0.001767218633214477</v>
       </c>
       <c r="AK2">
-        <v>0.003625272516852001</v>
+        <v>0.001122793534378917</v>
       </c>
       <c r="AO2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -2278,106 +1868,106 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.68337424595705</v>
+        <v>46.95777793037942</v>
       </c>
       <c r="D3">
-        <v>3.631665514584825</v>
+        <v>2.530347425610256</v>
       </c>
       <c r="E3">
-        <v>12.16809596689068</v>
+        <v>10.33671058128709</v>
       </c>
       <c r="F3">
-        <v>5.76467176850822</v>
+        <v>11.68460982098606</v>
       </c>
       <c r="G3">
-        <v>5.73760504230072</v>
+        <v>1.700530957433511</v>
       </c>
       <c r="H3">
-        <v>0.2062328189308773</v>
+        <v>0.2150948172481806</v>
       </c>
       <c r="I3">
-        <v>8.393352017100179</v>
+        <v>12.15331079863246</v>
       </c>
       <c r="J3">
-        <v>16.60207238263119</v>
+        <v>11.80950487409097</v>
       </c>
       <c r="K3">
-        <v>2.520350144230271</v>
+        <v>1.841745134100416</v>
       </c>
       <c r="L3">
-        <v>2.197120092418634</v>
+        <v>0.4399592407538687</v>
       </c>
       <c r="M3">
-        <v>1.027046202403221</v>
+        <v>0.1989143530512974</v>
       </c>
       <c r="N3">
-        <v>0.0290812396474684</v>
+        <v>0.1314940664264617</v>
       </c>
       <c r="O3">
-        <v>0.03933256439666297</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.4725338239676395</v>
+        <v>0.1157979917500862</v>
       </c>
       <c r="R3">
-        <v>0.4480065882887332</v>
+        <v>0.06548293103381857</v>
       </c>
       <c r="V3">
-        <v>0.321231100158304</v>
+        <v>0.3168970442250561</v>
       </c>
       <c r="W3">
-        <v>0.1773246283096161</v>
+        <v>0.1058345289878785</v>
       </c>
       <c r="X3">
-        <v>0.1188072990014585</v>
+        <v>0.08994686183183308</v>
       </c>
       <c r="Y3">
-        <v>0.2482884414580279</v>
+        <v>0.1801541073154936</v>
       </c>
       <c r="Z3">
-        <v>0.2015707963951314</v>
+        <v>0.02411102071455653</v>
       </c>
       <c r="AA3">
-        <v>0.01901257658177847</v>
+        <v>0.1756587062645493</v>
       </c>
       <c r="AB3">
-        <v>0.2481797516027507</v>
+        <v>0.1142087717061543</v>
       </c>
       <c r="AC3">
-        <v>0.2991002257627188</v>
+        <v>0.1266533634006745</v>
       </c>
       <c r="AD3">
-        <v>0.1122005065602453</v>
+        <v>0.1410033898608637</v>
       </c>
       <c r="AE3">
-        <v>0.03130249422336237</v>
+        <v>0.04793243914405301</v>
       </c>
       <c r="AF3">
-        <v>0.08727312563637032</v>
+        <v>0.03002980569106006</v>
       </c>
       <c r="AG3">
-        <v>0.02525403183506974</v>
+        <v>0.07778966424329317</v>
       </c>
       <c r="AH3">
-        <v>0.03511208912611366</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.735527824306385E-14</v>
+        <v>1.73727229036828E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.004799922124652358</v>
+        <v>0.001337258201633201</v>
       </c>
       <c r="AK3">
-        <v>0.00862962061192424</v>
+        <v>0.0008552086193893185</v>
       </c>
       <c r="AO3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -2385,106 +1975,106 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.31801534165155</v>
+        <v>46.40601965481781</v>
       </c>
       <c r="D4">
-        <v>2.954916605273334</v>
+        <v>2.40273767738839</v>
       </c>
       <c r="E4">
-        <v>14.61695115841823</v>
+        <v>10.08129570264803</v>
       </c>
       <c r="F4">
-        <v>6.104768829909506</v>
+        <v>9.222436397495525</v>
       </c>
       <c r="G4">
-        <v>4.598308640204574</v>
+        <v>3.479336223609516</v>
       </c>
       <c r="H4">
-        <v>0.1488795566807183</v>
+        <v>0.2672534258437593</v>
       </c>
       <c r="I4">
-        <v>8.413315271651991</v>
+        <v>13.88720256003162</v>
       </c>
       <c r="J4">
-        <v>12.21805822041309</v>
+        <v>11.49741755766673</v>
       </c>
       <c r="K4">
-        <v>2.452885694217421</v>
+        <v>1.957512183248496</v>
       </c>
       <c r="L4">
-        <v>0.6119787927206995</v>
+        <v>0.459370019868055</v>
       </c>
       <c r="M4">
-        <v>0.5186617485615257</v>
+        <v>0.2097060019458026</v>
       </c>
       <c r="N4">
-        <v>0.01479571515865227</v>
+        <v>0.1297125954362671</v>
       </c>
       <c r="O4">
-        <v>0.0284644251387206</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.4039962478758713</v>
+        <v>0.2534577753082212</v>
       </c>
       <c r="R4">
-        <v>0.3389472346852681</v>
+        <v>0.1697695964194891</v>
       </c>
       <c r="V4">
-        <v>0.2290255565338612</v>
+        <v>0.322802890955871</v>
       </c>
       <c r="W4">
-        <v>0.1434927018814729</v>
+        <v>0.09799569599281666</v>
       </c>
       <c r="X4">
-        <v>0.1267112243037387</v>
+        <v>0.09174623614000998</v>
       </c>
       <c r="Y4">
-        <v>0.1738561887599089</v>
+        <v>0.1772803745169137</v>
       </c>
       <c r="Z4">
-        <v>0.1115048477704581</v>
+        <v>0.05785312558346548</v>
       </c>
       <c r="AA4">
-        <v>0.03199058071759645</v>
+        <v>0.2682684734932657</v>
       </c>
       <c r="AB4">
-        <v>0.0963718545921777</v>
+        <v>0.1174404286439136</v>
       </c>
       <c r="AC4">
-        <v>0.145495024228826</v>
+        <v>0.2375976915774324</v>
       </c>
       <c r="AD4">
-        <v>0.1517436280425257</v>
+        <v>0.2106854423536111</v>
       </c>
       <c r="AE4">
-        <v>0.03964131000735437</v>
+        <v>0.05804142435107286</v>
       </c>
       <c r="AF4">
-        <v>0.04821288626793983</v>
+        <v>0.03943670543940909</v>
       </c>
       <c r="AG4">
-        <v>0.01479862444215627</v>
+        <v>0.04041618838614729</v>
       </c>
       <c r="AH4">
-        <v>0.02516420513175711</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.770098896287533E-14</v>
+        <v>2.233331229673873E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.003340077067252844</v>
+        <v>0.00354737022800429</v>
       </c>
       <c r="AK4">
-        <v>0.004701489656608159</v>
+        <v>0.003182232245554822</v>
       </c>
       <c r="AO4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -2492,320 +2082,106 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.53246358158901</v>
+        <v>46.72786105124368</v>
       </c>
       <c r="D5">
-        <v>3.256323485598194</v>
+        <v>2.524667494201947</v>
       </c>
       <c r="E5">
-        <v>13.48262507145317</v>
+        <v>10.36780064586993</v>
       </c>
       <c r="F5">
-        <v>6.562754550720284</v>
+        <v>9.356923699921953</v>
       </c>
       <c r="G5">
-        <v>5.301659276994894</v>
+        <v>3.703937223861031</v>
       </c>
       <c r="H5">
-        <v>0.2028541621270974</v>
+        <v>0.2443863098211013</v>
       </c>
       <c r="I5">
-        <v>8.423631606461042</v>
+        <v>12.58013221340903</v>
       </c>
       <c r="J5">
-        <v>14.36171222489877</v>
+        <v>11.6975971295855</v>
       </c>
       <c r="K5">
-        <v>1.87292900155341</v>
+        <v>1.987707595450791</v>
       </c>
       <c r="L5">
-        <v>1.095163981098075</v>
+        <v>0.4800012078696248</v>
       </c>
       <c r="M5">
-        <v>0.8561820821985986</v>
+        <v>0.2093142955316613</v>
       </c>
       <c r="N5">
-        <v>0.01759975086970102</v>
+        <v>0.1196711332337461</v>
       </c>
       <c r="O5">
-        <v>0.03410122443775512</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4209533007536795</v>
+        <v>0.2626493930712212</v>
       </c>
       <c r="R5">
-        <v>0.363513986062467</v>
+        <v>0.1781137128412145</v>
       </c>
       <c r="V5">
-        <v>0.279634468624548</v>
+        <v>0.2602965865018552</v>
       </c>
       <c r="W5">
-        <v>0.2027954886244662</v>
+        <v>0.1821251204534804</v>
       </c>
       <c r="X5">
-        <v>0.1214043380551679</v>
+        <v>0.1047727442339786</v>
       </c>
       <c r="Y5">
-        <v>0.1619427273452152</v>
+        <v>0.1167554967304174</v>
       </c>
       <c r="Z5">
-        <v>0.1056339744238993</v>
+        <v>0.04156083220018321</v>
       </c>
       <c r="AA5">
-        <v>0.04671809746717751</v>
+        <v>0.2377444826899469</v>
       </c>
       <c r="AB5">
-        <v>0.0949191859923061</v>
+        <v>0.1084592964301709</v>
       </c>
       <c r="AC5">
-        <v>0.1663843622726192</v>
+        <v>0.2014459737969814</v>
       </c>
       <c r="AD5">
-        <v>0.1193187757465495</v>
+        <v>0.1353370718168993</v>
       </c>
       <c r="AE5">
-        <v>0.04127460158497866</v>
+        <v>0.05071929405262674</v>
       </c>
       <c r="AF5">
-        <v>0.04434140846607104</v>
+        <v>0.04899924669074299</v>
       </c>
       <c r="AG5">
-        <v>0.01389664434496764</v>
+        <v>0.03002177333708103</v>
       </c>
       <c r="AH5">
-        <v>0.02988311245840582</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.286277737838975E-14</v>
+        <v>2.245359490783939E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.003163442546875464</v>
+        <v>0.002866830461356475</v>
       </c>
       <c r="AK5">
-        <v>0.004718536288570867</v>
+        <v>0.002637186013858324</v>
       </c>
       <c r="AO5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.70565433848791</v>
-      </c>
-      <c r="D6">
-        <v>3.356363959377513</v>
-      </c>
-      <c r="E6">
-        <v>13.05940622646176</v>
-      </c>
-      <c r="F6">
-        <v>6.655951149160368</v>
-      </c>
-      <c r="G6">
-        <v>5.659438739651296</v>
-      </c>
-      <c r="H6">
-        <v>0.1573493912218712</v>
-      </c>
-      <c r="I6">
-        <v>7.839616819202252</v>
-      </c>
-      <c r="J6">
-        <v>12.99263669678293</v>
-      </c>
-      <c r="K6">
-        <v>2.354609272711575</v>
-      </c>
-      <c r="L6">
-        <v>1.68254333529537</v>
-      </c>
-      <c r="M6">
-        <v>0.5007649489516265</v>
-      </c>
-      <c r="N6">
-        <v>0.02018947950023572</v>
-      </c>
-      <c r="O6">
-        <v>0.01547564319528975</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4335039565952679</v>
-      </c>
-      <c r="R6">
-        <v>0.3826412677251662</v>
-      </c>
-      <c r="V6">
-        <v>0.2625371688511161</v>
-      </c>
-      <c r="W6">
-        <v>0.1461195699244434</v>
-      </c>
-      <c r="X6">
-        <v>0.1299884233313817</v>
-      </c>
-      <c r="Y6">
-        <v>0.2225043825492543</v>
-      </c>
-      <c r="Z6">
-        <v>0.1520344815690607</v>
-      </c>
-      <c r="AA6">
-        <v>0.03171798796493192</v>
-      </c>
-      <c r="AB6">
-        <v>0.08308868736783051</v>
-      </c>
-      <c r="AC6">
-        <v>0.1316009015461002</v>
-      </c>
-      <c r="AD6">
-        <v>0.08936790691802114</v>
-      </c>
-      <c r="AE6">
-        <v>0.02648365553226599</v>
-      </c>
-      <c r="AF6">
-        <v>0.0692892584745215</v>
-      </c>
-      <c r="AG6">
-        <v>0.01781084249125427</v>
-      </c>
-      <c r="AH6">
-        <v>0.01442157902995172</v>
-      </c>
-      <c r="AI6">
-        <v>1.751169267119876E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.002864894378939159</v>
-      </c>
-      <c r="AK6">
-        <v>0.004463968079667579</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.01424120877585</v>
-      </c>
-      <c r="D7">
-        <v>3.231281222672972</v>
-      </c>
-      <c r="E7">
-        <v>13.4046906154242</v>
-      </c>
-      <c r="F7">
-        <v>5.743162098064746</v>
-      </c>
-      <c r="G7">
-        <v>5.124705243937012</v>
-      </c>
-      <c r="H7">
-        <v>0.1767591067478926</v>
-      </c>
-      <c r="I7">
-        <v>7.847076959909431</v>
-      </c>
-      <c r="J7">
-        <v>13.19148001734841</v>
-      </c>
-      <c r="K7">
-        <v>2.419514650671217</v>
-      </c>
-      <c r="L7">
-        <v>2.303917509659049</v>
-      </c>
-      <c r="M7">
-        <v>0.5242917026197987</v>
-      </c>
-      <c r="N7">
-        <v>0.01887966416943166</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4453672372796232</v>
-      </c>
-      <c r="R7">
-        <v>0.4015124852336837</v>
-      </c>
-      <c r="V7">
-        <v>0.1914088879623088</v>
-      </c>
-      <c r="W7">
-        <v>0.05407213053553544</v>
-      </c>
-      <c r="X7">
-        <v>0.09029404674886725</v>
-      </c>
-      <c r="Y7">
-        <v>0.1532196558526658</v>
-      </c>
-      <c r="Z7">
-        <v>0.1123951009929101</v>
-      </c>
-      <c r="AA7">
-        <v>0.02401474841079923</v>
-      </c>
-      <c r="AB7">
-        <v>0.07016353185036008</v>
-      </c>
-      <c r="AC7">
-        <v>0.1772153056437218</v>
-      </c>
-      <c r="AD7">
-        <v>0.02620551256917761</v>
-      </c>
-      <c r="AE7">
-        <v>0.04447551434920326</v>
-      </c>
-      <c r="AF7">
-        <v>0.0528498487399871</v>
-      </c>
-      <c r="AG7">
-        <v>0.01757861730872932</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.695971804718865E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.002268087361424983</v>
-      </c>
-      <c r="AK7">
-        <v>0.003686861865355093</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +2191,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2951,106 +2327,106 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>46.00012560406837</v>
+        <v>46.51348444039954</v>
       </c>
       <c r="D2">
-        <v>3.230259702299432</v>
+        <v>2.426496902999837</v>
       </c>
       <c r="E2">
-        <v>13.4022275539531</v>
+        <v>10.13149584520389</v>
       </c>
       <c r="F2">
-        <v>5.751504147114491</v>
+        <v>11.12193845417254</v>
       </c>
       <c r="G2">
-        <v>5.123856715750883</v>
+        <v>2.108161100740408</v>
       </c>
       <c r="H2">
-        <v>0.1766438812075593</v>
+        <v>0.2483145422840014</v>
       </c>
       <c r="I2">
-        <v>7.846363763469759</v>
+        <v>13.11217978250878</v>
       </c>
       <c r="J2">
-        <v>13.18473074059254</v>
+        <v>11.60396590058465</v>
       </c>
       <c r="K2">
-        <v>2.418605168382867</v>
+        <v>1.949053082530288</v>
       </c>
       <c r="L2">
-        <v>2.302193527197434</v>
+        <v>0.4871659874277497</v>
       </c>
       <c r="M2">
-        <v>0.5251989625702908</v>
+        <v>0.1684953424093253</v>
       </c>
       <c r="N2">
-        <v>0.01898325931475028</v>
+        <v>0.1292486187389968</v>
       </c>
       <c r="O2">
-        <v>0.0193069740785223</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4449723865165823</v>
+        <v>0.1457162756264374</v>
       </c>
       <c r="R2">
-        <v>0.4008693199011168</v>
+        <v>0.08528811118328138</v>
       </c>
       <c r="V2">
-        <v>0.1937643728876689</v>
+        <v>0.3021539141390266</v>
       </c>
       <c r="W2">
-        <v>0.05520200484194034</v>
+        <v>0.1680499750610426</v>
       </c>
       <c r="X2">
-        <v>0.08787556492978377</v>
+        <v>0.1073346560210321</v>
       </c>
       <c r="Y2">
-        <v>0.1543729055496833</v>
+        <v>0.1838164211540613</v>
       </c>
       <c r="Z2">
-        <v>0.1089097171996929</v>
+        <v>0.03198516506392883</v>
       </c>
       <c r="AA2">
-        <v>0.02384625636663425</v>
+        <v>0.2520955590496983</v>
       </c>
       <c r="AB2">
-        <v>0.06961405354843757</v>
+        <v>0.1192166874202686</v>
       </c>
       <c r="AC2">
-        <v>0.1749718985741867</v>
+        <v>0.2378611649480804</v>
       </c>
       <c r="AD2">
-        <v>0.02590687381314548</v>
+        <v>0.1919478375596289</v>
       </c>
       <c r="AE2">
-        <v>0.04414488586585399</v>
+        <v>0.03934223391162082</v>
       </c>
       <c r="AF2">
-        <v>0.05372090282796058</v>
+        <v>0.04026487542116487</v>
       </c>
       <c r="AG2">
-        <v>0.01760576421176475</v>
+        <v>0.04012042717703098</v>
       </c>
       <c r="AH2">
-        <v>0.0216384114690306</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.746433715136826E-14</v>
+        <v>2.192709370039206E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.002128046166185752</v>
+        <v>0.001754293664399895</v>
       </c>
       <c r="AK2">
-        <v>0.003453995776763071</v>
+        <v>0.001201717061269075</v>
       </c>
       <c r="AO2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -3058,106 +2434,106 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.68092209994648</v>
+        <v>46.93769601640032</v>
       </c>
       <c r="D3">
-        <v>3.631454173050616</v>
+        <v>2.529265510659349</v>
       </c>
       <c r="E3">
-        <v>12.16737923323631</v>
+        <v>10.33228888090318</v>
       </c>
       <c r="F3">
-        <v>5.711452309115277</v>
+        <v>11.2955583365437</v>
       </c>
       <c r="G3">
-        <v>5.796038014893382</v>
+        <v>2.126626635225211</v>
       </c>
       <c r="H3">
-        <v>0.2062207078966462</v>
+        <v>0.2150041785653908</v>
       </c>
       <c r="I3">
-        <v>8.392850175269839</v>
+        <v>12.14811165786202</v>
       </c>
       <c r="J3">
-        <v>16.60109461564102</v>
+        <v>11.80445322676918</v>
       </c>
       <c r="K3">
-        <v>2.520201992147535</v>
+        <v>1.840957305987954</v>
       </c>
       <c r="L3">
-        <v>2.196990761372465</v>
+        <v>0.4397710591541524</v>
       </c>
       <c r="M3">
-        <v>1.026986036722223</v>
+        <v>0.1988292870035402</v>
       </c>
       <c r="N3">
-        <v>0.02907956174461679</v>
+        <v>0.1314379049260009</v>
       </c>
       <c r="O3">
-        <v>0.03933031896359482</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.4773931013794032</v>
+        <v>0.1448718594558813</v>
       </c>
       <c r="R3">
-        <v>0.4567956337456269</v>
+        <v>0.08470885964374898</v>
       </c>
       <c r="V3">
-        <v>0.3215519169508428</v>
+        <v>0.3170832759243524</v>
       </c>
       <c r="W3">
-        <v>0.177366002461826</v>
+        <v>0.1057971421211136</v>
       </c>
       <c r="X3">
-        <v>0.1187854421518954</v>
+        <v>0.0898351906415977</v>
       </c>
       <c r="Y3">
-        <v>0.2493533188702933</v>
+        <v>0.1733391790199973</v>
       </c>
       <c r="Z3">
-        <v>0.193959264333941</v>
+        <v>0.02861109023349977</v>
       </c>
       <c r="AA3">
-        <v>0.01901180637550587</v>
+        <v>0.1755860424118299</v>
       </c>
       <c r="AB3">
-        <v>0.2479098801550439</v>
+        <v>0.1140419687420373</v>
       </c>
       <c r="AC3">
-        <v>0.2990796099997209</v>
+        <v>0.1265375162162341</v>
       </c>
       <c r="AD3">
-        <v>0.1122000141572832</v>
+        <v>0.1409415804643753</v>
       </c>
       <c r="AE3">
-        <v>0.03130481804253386</v>
+        <v>0.04791184923003427</v>
       </c>
       <c r="AF3">
-        <v>0.08727172094013248</v>
+        <v>0.0300170460100327</v>
       </c>
       <c r="AG3">
-        <v>0.02525261594380709</v>
+        <v>0.07775657631682596</v>
       </c>
       <c r="AH3">
-        <v>0.03511016232799645</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.718451658444097E-14</v>
+        <v>1.748476875857585E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.003910884653164174</v>
+        <v>0.001209453685885931</v>
       </c>
       <c r="AK3">
-        <v>0.007161002232646287</v>
+        <v>0.0008270198757202715</v>
       </c>
       <c r="AO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -3165,106 +2541,106 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.31171301398464</v>
+        <v>46.37803926655476</v>
       </c>
       <c r="D4">
-        <v>2.954524447339253</v>
+        <v>2.401289350859433</v>
       </c>
       <c r="E4">
-        <v>14.61500332745942</v>
+        <v>10.0752158425621</v>
       </c>
       <c r="F4">
-        <v>5.984355249571085</v>
+        <v>8.675451212963965</v>
       </c>
       <c r="G4">
-        <v>4.73061585994258</v>
+        <v>4.078956213746983</v>
       </c>
       <c r="H4">
-        <v>0.1488597902359889</v>
+        <v>0.2670979411329835</v>
       </c>
       <c r="I4">
-        <v>8.412193676687776</v>
+        <v>13.8788270109927</v>
       </c>
       <c r="J4">
-        <v>12.21643073530297</v>
+        <v>11.49048382542319</v>
       </c>
       <c r="K4">
-        <v>2.45255939926457</v>
+        <v>1.956332260873195</v>
       </c>
       <c r="L4">
-        <v>0.6118973042515025</v>
+        <v>0.4590930651930789</v>
       </c>
       <c r="M4">
-        <v>0.5185927518836998</v>
+        <v>0.2095796192893692</v>
       </c>
       <c r="N4">
-        <v>0.01479375327670324</v>
+        <v>0.129634390408263</v>
       </c>
       <c r="O4">
-        <v>0.02846069079981475</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.4156809626597577</v>
+        <v>0.2973096781567648</v>
       </c>
       <c r="R4">
-        <v>0.3557175598663007</v>
+        <v>0.2115654090967876</v>
       </c>
       <c r="V4">
-        <v>0.2290279726032725</v>
+        <v>0.3227047221167768</v>
       </c>
       <c r="W4">
-        <v>0.14350278080168</v>
+        <v>0.09794731531643541</v>
       </c>
       <c r="X4">
-        <v>0.1265861596259935</v>
+        <v>0.09155634104705514</v>
       </c>
       <c r="Y4">
-        <v>0.1720515945978565</v>
+        <v>0.1649152860497268</v>
       </c>
       <c r="Z4">
-        <v>0.1101797140962855</v>
+        <v>0.06389651693361642</v>
       </c>
       <c r="AA4">
-        <v>0.03198660456319142</v>
+        <v>0.268117162719485</v>
       </c>
       <c r="AB4">
-        <v>0.09627247813481672</v>
+        <v>0.1171215410471099</v>
       </c>
       <c r="AC4">
-        <v>0.1454663823999656</v>
+        <v>0.2373946125337582</v>
       </c>
       <c r="AD4">
-        <v>0.1517300581046052</v>
+        <v>0.2105619032655089</v>
       </c>
       <c r="AE4">
-        <v>0.03963641087527088</v>
+        <v>0.0580065969613533</v>
       </c>
       <c r="AF4">
-        <v>0.04820740019682314</v>
+        <v>0.03941323705210512</v>
       </c>
       <c r="AG4">
-        <v>0.01479667489649088</v>
+        <v>0.04039186769463721</v>
       </c>
       <c r="AH4">
-        <v>0.02516095429797528</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.805126907484601E-14</v>
+        <v>1.746742944310724E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.002869911386326225</v>
+        <v>0.003163120492293227</v>
       </c>
       <c r="AK4">
-        <v>0.004203450007602324</v>
+        <v>0.003202506508608957</v>
       </c>
       <c r="AO4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -3272,320 +2648,106 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.52705886396524</v>
+        <v>46.7048420093164</v>
       </c>
       <c r="D5">
-        <v>3.255931384764017</v>
+        <v>2.523426128072608</v>
       </c>
       <c r="E5">
-        <v>13.4809869576224</v>
+        <v>10.36269231914114</v>
       </c>
       <c r="F5">
-        <v>6.452961043013475</v>
+        <v>8.909997434304094</v>
       </c>
       <c r="G5">
-        <v>5.422150596466116</v>
+        <v>4.193687412995616</v>
       </c>
       <c r="H5">
-        <v>0.2028297140554733</v>
+        <v>0.2442703562521448</v>
       </c>
       <c r="I5">
-        <v>8.422607632613659</v>
+        <v>12.57393346546297</v>
       </c>
       <c r="J5">
-        <v>14.35996798174267</v>
+        <v>11.69183399517118</v>
       </c>
       <c r="K5">
-        <v>1.87270187983759</v>
+        <v>1.986728620343313</v>
       </c>
       <c r="L5">
-        <v>1.095030987681793</v>
+        <v>0.4797647934165749</v>
       </c>
       <c r="M5">
-        <v>0.8560781869479879</v>
+        <v>0.2092112778561672</v>
       </c>
       <c r="N5">
-        <v>0.01759762300177204</v>
+        <v>0.1196121876677964</v>
       </c>
       <c r="O5">
-        <v>0.03409714828781665</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4305727302604642</v>
+        <v>0.2975182907190971</v>
       </c>
       <c r="R5">
-        <v>0.3780937145412426</v>
+        <v>0.2117696979661448</v>
       </c>
       <c r="V5">
-        <v>0.2797377683220226</v>
+        <v>0.2599290471651697</v>
       </c>
       <c r="W5">
-        <v>0.2028217044364196</v>
+        <v>0.1820665444014167</v>
       </c>
       <c r="X5">
-        <v>0.1212202757612972</v>
+        <v>0.1045977723433625</v>
       </c>
       <c r="Y5">
-        <v>0.1586450751012145</v>
+        <v>0.1052130613790593</v>
       </c>
       <c r="Z5">
-        <v>0.1052294636584265</v>
+        <v>0.04334907592170922</v>
       </c>
       <c r="AA5">
-        <v>0.04671315048280757</v>
+        <v>0.2376358106335074</v>
       </c>
       <c r="AB5">
-        <v>0.09477718057813833</v>
+        <v>0.1081861274745248</v>
       </c>
       <c r="AC5">
-        <v>0.1662824756780945</v>
+        <v>0.201288017495156</v>
       </c>
       <c r="AD5">
-        <v>0.1193078290884949</v>
+        <v>0.1352726071975866</v>
       </c>
       <c r="AE5">
-        <v>0.04126806127265283</v>
+        <v>0.05069460648666393</v>
       </c>
       <c r="AF5">
-        <v>0.04433663445811691</v>
+        <v>0.04897554811410991</v>
       </c>
       <c r="AG5">
-        <v>0.013894970607086</v>
+        <v>0.030006973242692</v>
       </c>
       <c r="AH5">
-        <v>0.02987959051213335</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.759684103170324E-14</v>
+        <v>1.675312472292899E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.002610605694180269</v>
+        <v>0.002264373042308833</v>
       </c>
       <c r="AK5">
-        <v>0.004025410118883032</v>
+        <v>0.002294597327437221</v>
       </c>
       <c r="AO5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.70679619491058</v>
-      </c>
-      <c r="D6">
-        <v>3.356449406904463</v>
-      </c>
-      <c r="E6">
-        <v>13.0597310121493</v>
-      </c>
-      <c r="F6">
-        <v>6.678552035808585</v>
-      </c>
-      <c r="G6">
-        <v>5.634648382455109</v>
-      </c>
-      <c r="H6">
-        <v>0.1573534032905735</v>
-      </c>
-      <c r="I6">
-        <v>7.839811640097842</v>
-      </c>
-      <c r="J6">
-        <v>12.99296073629773</v>
-      </c>
-      <c r="K6">
-        <v>2.354668183252217</v>
-      </c>
-      <c r="L6">
-        <v>1.682585320401789</v>
-      </c>
-      <c r="M6">
-        <v>0.5007776421465131</v>
-      </c>
-      <c r="N6">
-        <v>0.02018999770599967</v>
-      </c>
-      <c r="O6">
-        <v>0.01547604457930265</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4316003471133927</v>
-      </c>
-      <c r="R6">
-        <v>0.3796800263903007</v>
-      </c>
-      <c r="V6">
-        <v>0.262534354480256</v>
-      </c>
-      <c r="W6">
-        <v>0.1461598334173221</v>
-      </c>
-      <c r="X6">
-        <v>0.1298419470061923</v>
-      </c>
-      <c r="Y6">
-        <v>0.2246760371332533</v>
-      </c>
-      <c r="Z6">
-        <v>0.1473661548580768</v>
-      </c>
-      <c r="AA6">
-        <v>0.03171915766975686</v>
-      </c>
-      <c r="AB6">
-        <v>0.082992183182917</v>
-      </c>
-      <c r="AC6">
-        <v>0.131548104443846</v>
-      </c>
-      <c r="AD6">
-        <v>0.08937231628708162</v>
-      </c>
-      <c r="AE6">
-        <v>0.02648102600835489</v>
-      </c>
-      <c r="AF6">
-        <v>0.06929227647086836</v>
-      </c>
-      <c r="AG6">
-        <v>0.01781131882537469</v>
-      </c>
-      <c r="AH6">
-        <v>0.01442195974098514</v>
-      </c>
-      <c r="AI6">
-        <v>2.239504776317275E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.002519116590835012</v>
-      </c>
-      <c r="AK6">
-        <v>0.003899708600060605</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.01439589112616</v>
-      </c>
-      <c r="D7">
-        <v>3.231292237181255</v>
-      </c>
-      <c r="E7">
-        <v>13.40473515174879</v>
-      </c>
-      <c r="F7">
-        <v>5.746196428402211</v>
-      </c>
-      <c r="G7">
-        <v>5.121372334085639</v>
-      </c>
-      <c r="H7">
-        <v>0.1767597407464087</v>
-      </c>
-      <c r="I7">
-        <v>7.847102757907759</v>
-      </c>
-      <c r="J7">
-        <v>13.19152410950314</v>
-      </c>
-      <c r="K7">
-        <v>2.419522768994249</v>
-      </c>
-      <c r="L7">
-        <v>2.303925267480469</v>
-      </c>
-      <c r="M7">
-        <v>0.5242935738976484</v>
-      </c>
-      <c r="N7">
-        <v>0.01887973892627114</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4450812616793672</v>
-      </c>
-      <c r="R7">
-        <v>0.4010463930609895</v>
-      </c>
-      <c r="V7">
-        <v>0.1914563690650515</v>
-      </c>
-      <c r="W7">
-        <v>0.05408220361750408</v>
-      </c>
-      <c r="X7">
-        <v>0.09022476181183549</v>
-      </c>
-      <c r="Y7">
-        <v>0.1551185657056531</v>
-      </c>
-      <c r="Z7">
-        <v>0.1092800280722172</v>
-      </c>
-      <c r="AA7">
-        <v>0.02401512596810926</v>
-      </c>
-      <c r="AB7">
-        <v>0.07010243857393886</v>
-      </c>
-      <c r="AC7">
-        <v>0.1772012658937993</v>
-      </c>
-      <c r="AD7">
-        <v>0.02620514072182059</v>
-      </c>
-      <c r="AE7">
-        <v>0.04447683022732642</v>
-      </c>
-      <c r="AF7">
-        <v>0.05285111886840177</v>
-      </c>
-      <c r="AG7">
-        <v>0.01757870215032071</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.671136440734464E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.0021531733503123</v>
-      </c>
-      <c r="AK7">
-        <v>0.003496804773065503</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +2757,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3731,106 +2893,106 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>46.00516492203175</v>
+        <v>46.51382316377444</v>
       </c>
       <c r="D2">
-        <v>3.230613573219907</v>
+        <v>2.426514570915792</v>
       </c>
       <c r="E2">
-        <v>13.40369577264898</v>
+        <v>10.13156962641856</v>
       </c>
       <c r="F2">
-        <v>5.850510369456895</v>
+        <v>11.1285587851457</v>
       </c>
       <c r="G2">
-        <v>5.015086901553093</v>
+        <v>2.100908876483887</v>
       </c>
       <c r="H2">
-        <v>0.1766632329731151</v>
+        <v>0.2483163459879887</v>
       </c>
       <c r="I2">
-        <v>7.84722332844865</v>
+        <v>13.11227527097614</v>
       </c>
       <c r="J2">
-        <v>13.18617511217681</v>
+        <v>11.60405041081093</v>
       </c>
       <c r="K2">
-        <v>2.418870128975389</v>
+        <v>1.949067284861615</v>
       </c>
       <c r="L2">
-        <v>2.302445734578489</v>
+        <v>0.4871695354131767</v>
       </c>
       <c r="M2">
-        <v>0.5252564961358063</v>
+        <v>0.1684965692813048</v>
       </c>
       <c r="N2">
-        <v>0.01898533938843665</v>
+        <v>0.1292495599304692</v>
       </c>
       <c r="O2">
-        <v>0.01930908841268407</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4354793011725863</v>
+        <v>0.1452139501842175</v>
       </c>
       <c r="R2">
-        <v>0.3857195838937178</v>
+        <v>0.08494414251909191</v>
       </c>
       <c r="V2">
-        <v>0.1937059867193596</v>
+        <v>0.302153699781325</v>
       </c>
       <c r="W2">
-        <v>0.05520641749667493</v>
+        <v>0.1680511519406542</v>
       </c>
       <c r="X2">
-        <v>0.08787082097678402</v>
+        <v>0.1073352099875333</v>
       </c>
       <c r="Y2">
-        <v>0.1566906981235435</v>
+        <v>0.1838857789876453</v>
       </c>
       <c r="Z2">
-        <v>0.1063934605554395</v>
+        <v>0.03188077160879164</v>
       </c>
       <c r="AA2">
-        <v>0.02384886204841856</v>
+        <v>0.2520973847662797</v>
       </c>
       <c r="AB2">
-        <v>0.06961468419106119</v>
+        <v>0.1192173038585218</v>
       </c>
       <c r="AC2">
-        <v>0.1749825621816455</v>
+        <v>0.2378630526954778</v>
       </c>
       <c r="AD2">
-        <v>0.0259082697519305</v>
+        <v>0.1919493185570553</v>
       </c>
       <c r="AE2">
-        <v>0.04414894638872277</v>
+        <v>0.03934252224276342</v>
       </c>
       <c r="AF2">
-        <v>0.05372672942355714</v>
+        <v>0.04026516763444718</v>
       </c>
       <c r="AG2">
-        <v>0.01760769255399881</v>
+        <v>0.04012071922528965</v>
       </c>
       <c r="AH2">
-        <v>0.0216407815507059</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.227023290683645E-14</v>
+        <v>1.720524290691152E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.00211826460903054</v>
+        <v>0.001749272960207039</v>
       </c>
       <c r="AK2">
-        <v>0.003323461656063733</v>
+        <v>0.001196870512241739</v>
       </c>
       <c r="AO2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -3838,106 +3000,106 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.68579159689801</v>
+        <v>46.93822369488495</v>
       </c>
       <c r="D3">
-        <v>3.631878404303761</v>
+        <v>2.5292939454851</v>
       </c>
       <c r="E3">
-        <v>12.1688007395843</v>
+        <v>10.33240504321691</v>
       </c>
       <c r="F3">
-        <v>5.817042100712175</v>
+        <v>11.30578060214358</v>
       </c>
       <c r="G3">
-        <v>5.680110071274863</v>
+        <v>2.115431026614299</v>
       </c>
       <c r="H3">
-        <v>0.2062448000596348</v>
+        <v>0.2150065920056535</v>
       </c>
       <c r="I3">
-        <v>8.393830593784502</v>
+        <v>12.14824823483108</v>
       </c>
       <c r="J3">
-        <v>16.60303398459297</v>
+        <v>11.80458594296626</v>
       </c>
       <c r="K3">
-        <v>2.520496405630912</v>
+        <v>1.840978009767809</v>
       </c>
       <c r="L3">
-        <v>2.197247432729372</v>
+        <v>0.4397760036482481</v>
       </c>
       <c r="M3">
-        <v>1.027106005137345</v>
+        <v>0.1988315223316782</v>
       </c>
       <c r="N3">
-        <v>0.02908295514044162</v>
+        <v>0.1314393821044331</v>
       </c>
       <c r="O3">
-        <v>0.03933491015171722</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.4677917153573386</v>
+        <v>0.1441075690008647</v>
       </c>
       <c r="R3">
-        <v>0.4395323189519534</v>
+        <v>0.08418671701627978</v>
       </c>
       <c r="V3">
-        <v>0.321486518184935</v>
+        <v>0.3170826502023043</v>
       </c>
       <c r="W3">
-        <v>0.1773848135935246</v>
+        <v>0.1057983084417866</v>
       </c>
       <c r="X3">
-        <v>0.1187772269431769</v>
+        <v>0.08983613333773764</v>
       </c>
       <c r="Y3">
-        <v>0.2533291057691035</v>
+        <v>0.1734552605355247</v>
       </c>
       <c r="Z3">
-        <v>0.1896653113271477</v>
+        <v>0.02846325515401033</v>
       </c>
       <c r="AA3">
-        <v>0.01901398279679274</v>
+        <v>0.1755880093178303</v>
       </c>
       <c r="AB3">
-        <v>0.2479300039013682</v>
+        <v>0.1140431770474122</v>
       </c>
       <c r="AC3">
-        <v>0.2990913139231321</v>
+        <v>0.1265391429385277</v>
       </c>
       <c r="AD3">
-        <v>0.1122116715210266</v>
+        <v>0.1409432501118127</v>
       </c>
       <c r="AE3">
-        <v>0.03130564254160113</v>
+        <v>0.04791239061837737</v>
       </c>
       <c r="AF3">
-        <v>0.0872815319844982</v>
+        <v>0.03001738302987667</v>
       </c>
       <c r="AG3">
-        <v>0.02525555891934828</v>
+        <v>0.07775744948812413</v>
       </c>
       <c r="AH3">
-        <v>0.03511426080712114</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.233363196566254E-14</v>
+        <v>2.201444382721778E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.003902631702877269</v>
+        <v>0.001204148495429572</v>
       </c>
       <c r="AK3">
-        <v>0.00689037215948493</v>
+        <v>0.0008219221523806603</v>
       </c>
       <c r="AO3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -3945,106 +3107,106 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.31674499377163</v>
+        <v>46.37857710261117</v>
       </c>
       <c r="D4">
-        <v>2.95483866347599</v>
+        <v>2.40131719856798</v>
       </c>
       <c r="E4">
-        <v>14.61655773769295</v>
+        <v>10.0753326865599</v>
       </c>
       <c r="F4">
-        <v>6.080502103238772</v>
+        <v>8.685965546397746</v>
       </c>
       <c r="G4">
-        <v>4.624972865650125</v>
+        <v>4.067430097700384</v>
       </c>
       <c r="H4">
-        <v>0.148875623240987</v>
+        <v>0.2671010288084966</v>
       </c>
       <c r="I4">
-        <v>8.413088374686588</v>
+        <v>13.87898796612613</v>
       </c>
       <c r="J4">
-        <v>12.21773005040307</v>
+        <v>11.49061708564919</v>
       </c>
       <c r="K4">
-        <v>2.452820254356981</v>
+        <v>1.956354954729898</v>
       </c>
       <c r="L4">
-        <v>0.6119623817463182</v>
+        <v>0.4590983894337675</v>
       </c>
       <c r="M4">
-        <v>0.5186479088728638</v>
+        <v>0.2095820497398353</v>
       </c>
       <c r="N4">
-        <v>0.01479532573444428</v>
+        <v>0.1296358936755117</v>
       </c>
       <c r="O4">
-        <v>0.02846371712928087</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.4063554116879084</v>
+        <v>0.2964661420061064</v>
       </c>
       <c r="R4">
-        <v>0.3422742084856066</v>
+        <v>0.2107121615556462</v>
       </c>
       <c r="V4">
-        <v>0.228976134781253</v>
+        <v>0.3227046929996285</v>
       </c>
       <c r="W4">
-        <v>0.1435171379565721</v>
+        <v>0.09794842995080548</v>
       </c>
       <c r="X4">
-        <v>0.1265850139780484</v>
+        <v>0.09155720482086077</v>
       </c>
       <c r="Y4">
-        <v>0.1744146507372645</v>
+        <v>0.165049856223484</v>
       </c>
       <c r="Z4">
-        <v>0.1075983890952023</v>
+        <v>0.06372909300278357</v>
       </c>
       <c r="AA4">
-        <v>0.03199000243083326</v>
+        <v>0.2681202543284577</v>
       </c>
       <c r="AB4">
-        <v>0.09627645077921596</v>
+        <v>0.1171226065552151</v>
       </c>
       <c r="AC4">
-        <v>0.1454738381839289</v>
+        <v>0.2373974171901503</v>
       </c>
       <c r="AD4">
-        <v>0.1517459784323537</v>
+        <v>0.2105643963646563</v>
       </c>
       <c r="AE4">
-        <v>0.03964051113341437</v>
+        <v>0.05800726971336374</v>
       </c>
       <c r="AF4">
-        <v>0.04821249111244914</v>
+        <v>0.03941369350028294</v>
       </c>
       <c r="AG4">
-        <v>0.01479824618962318</v>
+        <v>0.04039233571847312</v>
       </c>
       <c r="AH4">
-        <v>0.02516363068766241</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.793677072125315E-14</v>
+        <v>2.241307169293247E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.002850305061697323</v>
+        <v>0.003157929971471913</v>
       </c>
       <c r="AK4">
-        <v>0.004044592358054137</v>
+        <v>0.003189590735583368</v>
       </c>
       <c r="AO4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -4052,320 +3214,106 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.53235172921524</v>
+        <v>46.70569343102647</v>
       </c>
       <c r="D5">
-        <v>3.256318382380524</v>
+        <v>2.523472123703836</v>
       </c>
       <c r="E5">
-        <v>13.4825894494517</v>
+        <v>10.36288122951465</v>
       </c>
       <c r="F5">
-        <v>6.560472150960114</v>
+        <v>8.92652931710416</v>
       </c>
       <c r="G5">
-        <v>5.30416416450368</v>
+        <v>4.175571428380084</v>
       </c>
       <c r="H5">
-        <v>0.2028538215110733</v>
+        <v>0.2442747969715549</v>
       </c>
       <c r="I5">
-        <v>8.42360883533801</v>
+        <v>12.57416268839002</v>
       </c>
       <c r="J5">
-        <v>14.36167496735133</v>
+        <v>11.69204714294298</v>
       </c>
       <c r="K5">
-        <v>1.872924482799949</v>
+        <v>1.986764842744249</v>
       </c>
       <c r="L5">
-        <v>1.09516115529221</v>
+        <v>0.4797735397375786</v>
       </c>
       <c r="M5">
-        <v>0.8561799457295403</v>
+        <v>0.2092150913510825</v>
       </c>
       <c r="N5">
-        <v>0.01759971532364813</v>
+        <v>0.1196143681333353</v>
       </c>
       <c r="O5">
-        <v>0.03410120014298429</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4211538316095769</v>
+        <v>0.2962276791239511</v>
       </c>
       <c r="R5">
-        <v>0.3638047189085271</v>
+        <v>0.2104643565062383</v>
       </c>
       <c r="V5">
-        <v>0.279715063046335</v>
+        <v>0.2599321077410046</v>
       </c>
       <c r="W5">
-        <v>0.2028449066529309</v>
+        <v>0.1820697727932338</v>
       </c>
       <c r="X5">
-        <v>0.1212258489306092</v>
+        <v>0.1045994911361823</v>
       </c>
       <c r="Y5">
-        <v>0.1608763314041474</v>
+        <v>0.1053363849336547</v>
       </c>
       <c r="Z5">
-        <v>0.1028065706340381</v>
+        <v>0.04318463666046711</v>
       </c>
       <c r="AA5">
-        <v>0.04671868606012874</v>
+        <v>0.2376401184701293</v>
       </c>
       <c r="AB5">
-        <v>0.09478430475294031</v>
+        <v>0.1081880588703036</v>
       </c>
       <c r="AC5">
-        <v>0.1662957063016797</v>
+        <v>0.201291989246625</v>
       </c>
       <c r="AD5">
-        <v>0.1193217422769917</v>
+        <v>0.1352751358976475</v>
       </c>
       <c r="AE5">
-        <v>0.04127281509504995</v>
+        <v>0.05069553265666507</v>
       </c>
       <c r="AF5">
-        <v>0.0443417358690277</v>
+        <v>0.04897643880783353</v>
       </c>
       <c r="AG5">
-        <v>0.01389662287114019</v>
+        <v>0.03000751997599784</v>
       </c>
       <c r="AH5">
-        <v>0.0298831406594663</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.265064072638948E-14</v>
+        <v>1.7018320090202E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.002595727227395557</v>
+        <v>0.002258693258276109</v>
       </c>
       <c r="AK5">
-        <v>0.003873280989525781</v>
+        <v>0.002280453504907082</v>
       </c>
       <c r="AO5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.71243224681056</v>
-      </c>
-      <c r="D6">
-        <v>3.356863254039733</v>
-      </c>
-      <c r="E6">
-        <v>13.06134139354142</v>
-      </c>
-      <c r="F6">
-        <v>6.790113485377177</v>
-      </c>
-      <c r="G6">
-        <v>5.512274396548322</v>
-      </c>
-      <c r="H6">
-        <v>0.1573728037400301</v>
-      </c>
-      <c r="I6">
-        <v>7.840778367647449</v>
-      </c>
-      <c r="J6">
-        <v>12.99456289565206</v>
-      </c>
-      <c r="K6">
-        <v>2.354958534003072</v>
-      </c>
-      <c r="L6">
-        <v>1.682792800830633</v>
-      </c>
-      <c r="M6">
-        <v>0.5008393838184078</v>
-      </c>
-      <c r="N6">
-        <v>0.02019248588954008</v>
-      </c>
-      <c r="O6">
-        <v>0.01547795210160013</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4221756173134918</v>
-      </c>
-      <c r="R6">
-        <v>0.3653310805330467</v>
-      </c>
-      <c r="V6">
-        <v>0.2624482154900262</v>
-      </c>
-      <c r="W6">
-        <v>0.1461759579955168</v>
-      </c>
-      <c r="X6">
-        <v>0.1298385260601129</v>
-      </c>
-      <c r="Y6">
-        <v>0.2279277688515856</v>
-      </c>
-      <c r="Z6">
-        <v>0.1438454586866431</v>
-      </c>
-      <c r="AA6">
-        <v>0.03172304277346866</v>
-      </c>
-      <c r="AB6">
-        <v>0.08299229297921151</v>
-      </c>
-      <c r="AC6">
-        <v>0.1315464629240298</v>
-      </c>
-      <c r="AD6">
-        <v>0.08938239585943215</v>
-      </c>
-      <c r="AE6">
-        <v>0.02648287613843242</v>
-      </c>
-      <c r="AF6">
-        <v>0.06930070619249998</v>
-      </c>
-      <c r="AG6">
-        <v>0.017813511194723</v>
-      </c>
-      <c r="AH6">
-        <v>0.01442373797172595</v>
-      </c>
-      <c r="AI6">
-        <v>2.242479186805203E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.002504975683884262</v>
-      </c>
-      <c r="AK6">
-        <v>0.003752330008425617</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.01943336502706</v>
-      </c>
-      <c r="D7">
-        <v>3.231645986569778</v>
-      </c>
-      <c r="E7">
-        <v>13.40620264236451</v>
-      </c>
-      <c r="F7">
-        <v>5.845135133122211</v>
-      </c>
-      <c r="G7">
-        <v>5.012675791753448</v>
-      </c>
-      <c r="H7">
-        <v>0.1767790908895534</v>
-      </c>
-      <c r="I7">
-        <v>7.847961828752381</v>
-      </c>
-      <c r="J7">
-        <v>13.19296824759109</v>
-      </c>
-      <c r="K7">
-        <v>2.419787649199087</v>
-      </c>
-      <c r="L7">
-        <v>2.304177490247978</v>
-      </c>
-      <c r="M7">
-        <v>0.524350968808315</v>
-      </c>
-      <c r="N7">
-        <v>0.01888180567458423</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4355876805954706</v>
-      </c>
-      <c r="R7">
-        <v>0.3858899650682156</v>
-      </c>
-      <c r="V7">
-        <v>0.1913969659277711</v>
-      </c>
-      <c r="W7">
-        <v>0.05408673753359219</v>
-      </c>
-      <c r="X7">
-        <v>0.09021916465259865</v>
-      </c>
-      <c r="Y7">
-        <v>0.1574456022175926</v>
-      </c>
-      <c r="Z7">
-        <v>0.1067538069805669</v>
-      </c>
-      <c r="AA7">
-        <v>0.02401773840654026</v>
-      </c>
-      <c r="AB7">
-        <v>0.07010385283366741</v>
-      </c>
-      <c r="AC7">
-        <v>0.1772122092845645</v>
-      </c>
-      <c r="AD7">
-        <v>0.0262064280108492</v>
-      </c>
-      <c r="AE7">
-        <v>0.04448073580030984</v>
-      </c>
-      <c r="AF7">
-        <v>0.05285683870534134</v>
-      </c>
-      <c r="AG7">
-        <v>0.01758062566977322</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.718921758756117E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.002143302675846077</v>
-      </c>
-      <c r="AK7">
-        <v>0.003364652805949591</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +3323,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4511,106 +3459,106 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>45.990273379641</v>
+        <v>46.49534292491519</v>
       </c>
       <c r="D2">
-        <v>3.229567898535497</v>
+        <v>2.425550616866542</v>
       </c>
       <c r="E2">
-        <v>13.39935722007376</v>
+        <v>10.1275443537171</v>
       </c>
       <c r="F2">
-        <v>5.557904720192937</v>
+        <v>10.76735247394537</v>
       </c>
       <c r="G2">
-        <v>5.336541386299184</v>
+        <v>2.496588519758198</v>
       </c>
       <c r="H2">
-        <v>0.1766060373236413</v>
+        <v>0.248217759430775</v>
       </c>
       <c r="I2">
-        <v>7.844683356913935</v>
+        <v>13.10706573425989</v>
       </c>
       <c r="J2">
-        <v>13.18190771891697</v>
+        <v>11.59944131046357</v>
       </c>
       <c r="K2">
-        <v>2.418087122335961</v>
+        <v>1.948291667991459</v>
       </c>
       <c r="L2">
-        <v>2.301700342038496</v>
+        <v>0.4869759280992482</v>
       </c>
       <c r="M2">
-        <v>0.5250887934761087</v>
+        <v>0.1684305370895125</v>
       </c>
       <c r="N2">
-        <v>0.01897917378746988</v>
+        <v>0.1291981734631384</v>
       </c>
       <c r="O2">
-        <v>0.01930285046503837</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4634900675028086</v>
+        <v>0.1726176300874676</v>
       </c>
       <c r="R2">
-        <v>0.4320038749124534</v>
+        <v>0.1043211469001777</v>
       </c>
       <c r="V2">
-        <v>0.1942728812664161</v>
+        <v>0.3022365753184065</v>
       </c>
       <c r="W2">
-        <v>0.05520251294298974</v>
+        <v>0.1679869660227293</v>
       </c>
       <c r="X2">
-        <v>0.0879797706577533</v>
+        <v>0.1073258527061979</v>
       </c>
       <c r="Y2">
-        <v>0.1336604383800463</v>
+        <v>0.1700641891929537</v>
       </c>
       <c r="Z2">
-        <v>0.1442773147338789</v>
+        <v>0.05372410343801671</v>
       </c>
       <c r="AA2">
-        <v>0.02384107877416192</v>
+        <v>0.2519976759664442</v>
       </c>
       <c r="AB2">
-        <v>0.06965662302847833</v>
+        <v>0.1192167700877694</v>
       </c>
       <c r="AC2">
-        <v>0.1750494657553601</v>
+        <v>0.2378463533972772</v>
       </c>
       <c r="AD2">
-        <v>0.02590957024537363</v>
+        <v>0.1918606552286313</v>
       </c>
       <c r="AE2">
-        <v>0.04413595164757186</v>
+        <v>0.03932640588296073</v>
       </c>
       <c r="AF2">
-        <v>0.05373223451954224</v>
+        <v>0.04025299964510951</v>
       </c>
       <c r="AG2">
-        <v>0.01760195824281833</v>
+        <v>0.04010462723058037</v>
       </c>
       <c r="AH2">
-        <v>0.02163378912723046</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.245179776905224E-14</v>
+        <v>1.729113301272528E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.004109009044089847</v>
+        <v>0.002526995367657262</v>
       </c>
       <c r="AK2">
-        <v>0.007141273126838987</v>
+        <v>0.001845792133097064</v>
       </c>
       <c r="AO2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -4618,106 +3566,106 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.69091686995606</v>
+        <v>46.9189215057115</v>
       </c>
       <c r="D3">
-        <v>3.632324511828447</v>
+        <v>2.528253813645688</v>
       </c>
       <c r="E3">
-        <v>12.17029721070278</v>
+        <v>10.32815592786988</v>
       </c>
       <c r="F3">
-        <v>5.92806537144011</v>
+        <v>10.93183673968088</v>
       </c>
       <c r="G3">
-        <v>5.558195477991595</v>
+        <v>2.524978746076377</v>
       </c>
       <c r="H3">
-        <v>0.2062701745027227</v>
+        <v>0.2149182562153295</v>
       </c>
       <c r="I3">
-        <v>8.394863616393467</v>
+        <v>12.1432523849389</v>
       </c>
       <c r="J3">
-        <v>16.60507803462905</v>
+        <v>11.79973162138713</v>
       </c>
       <c r="K3">
-        <v>2.520806096173991</v>
+        <v>1.840220329517352</v>
       </c>
       <c r="L3">
-        <v>2.197517572782267</v>
+        <v>0.4395950800490195</v>
       </c>
       <c r="M3">
-        <v>1.027238764937079</v>
+        <v>0.1987502593800819</v>
       </c>
       <c r="N3">
-        <v>0.0290865448187821</v>
+        <v>0.131385335527872</v>
       </c>
       <c r="O3">
-        <v>0.03933975384364552</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.457553352494637</v>
+        <v>0.1720665673828298</v>
       </c>
       <c r="R3">
-        <v>0.4218945318284784</v>
+        <v>0.1039162716629974</v>
       </c>
       <c r="V3">
-        <v>0.3220425970042454</v>
+        <v>0.3172386704777627</v>
       </c>
       <c r="W3">
-        <v>0.17740468622851</v>
+        <v>0.1057566564269629</v>
       </c>
       <c r="X3">
-        <v>0.1189435318699128</v>
+        <v>0.08982883493598419</v>
       </c>
       <c r="Y3">
-        <v>0.2264178831972836</v>
+        <v>0.1604174662545527</v>
       </c>
       <c r="Z3">
-        <v>0.241249062508643</v>
+        <v>0.04746990646555404</v>
       </c>
       <c r="AA3">
-        <v>0.01901674592656618</v>
+        <v>0.1755160876554313</v>
       </c>
       <c r="AB3">
-        <v>0.2480212845048165</v>
+        <v>0.1140304000299534</v>
       </c>
       <c r="AC3">
-        <v>0.299366381145288</v>
+        <v>0.1265345844510984</v>
       </c>
       <c r="AD3">
-        <v>0.1122264666678844</v>
+        <v>0.1408780590213347</v>
       </c>
       <c r="AE3">
-        <v>0.03132332878915984</v>
+        <v>0.0478921174098351</v>
       </c>
       <c r="AF3">
-        <v>0.08737003571114511</v>
+        <v>0.03000839199745537</v>
       </c>
       <c r="AG3">
-        <v>0.0252586708679375</v>
+        <v>0.07772554068126386</v>
       </c>
       <c r="AH3">
-        <v>0.03511859488125593</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.246978367097461E-14</v>
+        <v>2.201138477852279E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.006803329094572184</v>
+        <v>0.001840994220269127</v>
       </c>
       <c r="AK3">
-        <v>0.01155702677306635</v>
+        <v>0.001343104427739019</v>
       </c>
       <c r="AO3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -4725,106 +3673,106 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.30556019957336</v>
+        <v>46.35443559150125</v>
       </c>
       <c r="D4">
-        <v>2.954140208826609</v>
+        <v>2.400067177776961</v>
       </c>
       <c r="E4">
-        <v>14.61310308292485</v>
+        <v>10.07008807087232</v>
       </c>
       <c r="F4">
-        <v>5.866743370379815</v>
+        <v>8.214002285953406</v>
       </c>
       <c r="G4">
-        <v>4.859836864181516</v>
+        <v>4.584805868590454</v>
       </c>
       <c r="H4">
-        <v>0.1488404007553158</v>
+        <v>0.2669626920026235</v>
       </c>
       <c r="I4">
-        <v>8.41109983379566</v>
+        <v>13.87176341477247</v>
       </c>
       <c r="J4">
-        <v>12.21484260668463</v>
+        <v>11.48463762929158</v>
       </c>
       <c r="K4">
-        <v>2.452239826530126</v>
+        <v>1.955335431838563</v>
       </c>
       <c r="L4">
-        <v>0.6118176813539692</v>
+        <v>0.458859205468935</v>
       </c>
       <c r="M4">
-        <v>0.5185271008814254</v>
+        <v>0.2094742065779641</v>
       </c>
       <c r="N4">
-        <v>0.01479185091954022</v>
+        <v>0.1295684253534719</v>
       </c>
       <c r="O4">
-        <v>0.02845697319318783</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.4270360556510549</v>
+        <v>0.3343282824054117</v>
       </c>
       <c r="R4">
-        <v>0.3727070521297081</v>
+        <v>0.2511492835042003</v>
       </c>
       <c r="V4">
-        <v>0.2295883296288073</v>
+        <v>0.3227868149757366</v>
       </c>
       <c r="W4">
-        <v>0.1434876163617527</v>
+        <v>0.09789817574384534</v>
       </c>
       <c r="X4">
-        <v>0.1267196018810895</v>
+        <v>0.09154158432594034</v>
       </c>
       <c r="Y4">
-        <v>0.1522648905954462</v>
+        <v>0.1474252840070991</v>
       </c>
       <c r="Z4">
-        <v>0.1424741973846994</v>
+        <v>0.09340229169274913</v>
       </c>
       <c r="AA4">
-        <v>0.03198236556223701</v>
+        <v>0.2679816043566174</v>
       </c>
       <c r="AB4">
-        <v>0.09631734133144394</v>
+        <v>0.1171114980726435</v>
       </c>
       <c r="AC4">
-        <v>0.1455599897666925</v>
+        <v>0.2373810680690411</v>
       </c>
       <c r="AD4">
-        <v>0.1517026238471908</v>
+        <v>0.2104445418909335</v>
       </c>
       <c r="AE4">
-        <v>0.03963112129173543</v>
+        <v>0.05797548604438924</v>
       </c>
       <c r="AF4">
-        <v>0.04822072969217889</v>
+        <v>0.03939990713188866</v>
       </c>
       <c r="AG4">
-        <v>0.01479480030037139</v>
+        <v>0.04037132144344346</v>
       </c>
       <c r="AH4">
-        <v>0.02515763335196564</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.712446567306796E-14</v>
+        <v>1.7333918470811E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.004412802146191984</v>
+        <v>0.004086270991117078</v>
       </c>
       <c r="AK4">
-        <v>0.006726447276565439</v>
+        <v>0.004610729516354706</v>
       </c>
       <c r="AO4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -4832,320 +3780,106 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.53092237878469</v>
+        <v>46.67769261781539</v>
       </c>
       <c r="D5">
-        <v>3.256213603850254</v>
+        <v>2.521959339365191</v>
       </c>
       <c r="E5">
-        <v>13.48215722824895</v>
+        <v>10.35666889932659</v>
       </c>
       <c r="F5">
-        <v>6.531394609357791</v>
+        <v>8.382862994083768</v>
       </c>
       <c r="G5">
-        <v>5.336067732764731</v>
+        <v>4.771330648062559</v>
       </c>
       <c r="H5">
-        <v>0.2028472968131836</v>
+        <v>0.2441291277519721</v>
       </c>
       <c r="I5">
-        <v>8.423338744955819</v>
+        <v>12.56662443398338</v>
       </c>
       <c r="J5">
-        <v>14.36121508182741</v>
+        <v>11.68503873262816</v>
       </c>
       <c r="K5">
-        <v>1.87286394438378</v>
+        <v>1.985573091801283</v>
       </c>
       <c r="L5">
-        <v>1.095125926618362</v>
+        <v>0.4794857614837069</v>
       </c>
       <c r="M5">
-        <v>0.8561541994131674</v>
+        <v>0.2090917064368447</v>
       </c>
       <c r="N5">
-        <v>0.01759913873409354</v>
+        <v>0.1195426472611599</v>
       </c>
       <c r="O5">
-        <v>0.03410011424777928</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4236555346683094</v>
+        <v>0.338686400900864</v>
       </c>
       <c r="R5">
-        <v>0.3675775136955697</v>
+        <v>0.2560964445118423</v>
       </c>
       <c r="V5">
-        <v>0.2800410601680227</v>
+        <v>0.2596459610049424</v>
       </c>
       <c r="W5">
-        <v>0.2028367440519799</v>
+        <v>0.1819611139959723</v>
       </c>
       <c r="X5">
-        <v>0.1213515991352416</v>
+        <v>0.1045587992831349</v>
       </c>
       <c r="Y5">
-        <v>0.1417592461121762</v>
+        <v>0.09891184787569497</v>
       </c>
       <c r="Z5">
-        <v>0.1346959467428996</v>
+        <v>0.0726971253281722</v>
       </c>
       <c r="AA5">
-        <v>0.04671712877418006</v>
+        <v>0.2374992536082862</v>
       </c>
       <c r="AB5">
-        <v>0.0948416301929457</v>
+        <v>0.1081186243067931</v>
       </c>
       <c r="AC5">
-        <v>0.1664421872663665</v>
+        <v>0.2012280678192451</v>
       </c>
       <c r="AD5">
-        <v>0.1193126296689164</v>
+        <v>0.1351838839921966</v>
       </c>
       <c r="AE5">
-        <v>0.04127081601254379</v>
+        <v>0.05066372551499923</v>
       </c>
       <c r="AF5">
-        <v>0.04437458625010439</v>
+        <v>0.04895572640739362</v>
       </c>
       <c r="AG5">
-        <v>0.01389615756258829</v>
+        <v>0.02998954589542079</v>
       </c>
       <c r="AH5">
-        <v>0.02988219903553346</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.25128912092504E-14</v>
+        <v>1.696680334348589E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.003951527873444247</v>
+        <v>0.003840662548080622</v>
       </c>
       <c r="AK5">
-        <v>0.005948114886591374</v>
+        <v>0.004391731555779758</v>
       </c>
       <c r="AO5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.68941452239275</v>
-      </c>
-      <c r="D6">
-        <v>3.355173088428757</v>
-      </c>
-      <c r="E6">
-        <v>13.0547650164891</v>
-      </c>
-      <c r="F6">
-        <v>6.334386369824069</v>
-      </c>
-      <c r="G6">
-        <v>6.012154974949533</v>
-      </c>
-      <c r="H6">
-        <v>0.157293603364951</v>
-      </c>
-      <c r="I6">
-        <v>7.836830323928714</v>
-      </c>
-      <c r="J6">
-        <v>12.98802007109761</v>
-      </c>
-      <c r="K6">
-        <v>2.353772473470661</v>
-      </c>
-      <c r="L6">
-        <v>1.681945402822874</v>
-      </c>
-      <c r="M6">
-        <v>0.5005916476377249</v>
-      </c>
-      <c r="N6">
-        <v>0.02018234202875679</v>
-      </c>
-      <c r="O6">
-        <v>0.01547016356449859</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4605973888435135</v>
-      </c>
-      <c r="R6">
-        <v>0.4270416092422211</v>
-      </c>
-      <c r="V6">
-        <v>0.2636993247848107</v>
-      </c>
-      <c r="W6">
-        <v>0.1461188063503512</v>
-      </c>
-      <c r="X6">
-        <v>0.1300457285873974</v>
-      </c>
-      <c r="Y6">
-        <v>0.187939207518068</v>
-      </c>
-      <c r="Z6">
-        <v>0.2075495508213204</v>
-      </c>
-      <c r="AA6">
-        <v>0.0317073608324786</v>
-      </c>
-      <c r="AB6">
-        <v>0.08308376244299295</v>
-      </c>
-      <c r="AC6">
-        <v>0.1317397443687618</v>
-      </c>
-      <c r="AD6">
-        <v>0.08934139916661493</v>
-      </c>
-      <c r="AE6">
-        <v>0.02648457756622496</v>
-      </c>
-      <c r="AF6">
-        <v>0.06929852936338345</v>
-      </c>
-      <c r="AG6">
-        <v>0.01780455188518432</v>
-      </c>
-      <c r="AH6">
-        <v>0.01441645861446602</v>
-      </c>
-      <c r="AI6">
-        <v>1.750361665214432E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.005320037228946164</v>
-      </c>
-      <c r="AK6">
-        <v>0.009150208673713257</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.00455068298874</v>
-      </c>
-      <c r="D7">
-        <v>3.230600814464019</v>
-      </c>
-      <c r="E7">
-        <v>13.40186729664161</v>
-      </c>
-      <c r="F7">
-        <v>5.552796508010456</v>
-      </c>
-      <c r="G7">
-        <v>5.333839470951689</v>
-      </c>
-      <c r="H7">
-        <v>0.1767219208224862</v>
-      </c>
-      <c r="I7">
-        <v>7.845423793548861</v>
-      </c>
-      <c r="J7">
-        <v>13.18870279788275</v>
-      </c>
-      <c r="K7">
-        <v>2.419005069431888</v>
-      </c>
-      <c r="L7">
-        <v>2.303432289457493</v>
-      </c>
-      <c r="M7">
-        <v>0.5241836519155328</v>
-      </c>
-      <c r="N7">
-        <v>0.01887570388446329</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4635924944482209</v>
-      </c>
-      <c r="R7">
-        <v>0.4321794187949246</v>
-      </c>
-      <c r="V7">
-        <v>0.191964537182909</v>
-      </c>
-      <c r="W7">
-        <v>0.05407680078954518</v>
-      </c>
-      <c r="X7">
-        <v>0.09033593981626135</v>
-      </c>
-      <c r="Y7">
-        <v>0.1337266257195867</v>
-      </c>
-      <c r="Z7">
-        <v>0.1445662052647437</v>
-      </c>
-      <c r="AA7">
-        <v>0.02401003682202239</v>
-      </c>
-      <c r="AB7">
-        <v>0.07013072737170192</v>
-      </c>
-      <c r="AC7">
-        <v>0.177296762894305</v>
-      </c>
-      <c r="AD7">
-        <v>0.0262087356988624</v>
-      </c>
-      <c r="AE7">
-        <v>0.04447162811090224</v>
-      </c>
-      <c r="AF7">
-        <v>0.05286241257007843</v>
-      </c>
-      <c r="AG7">
-        <v>0.01757496081401998</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>2.234448231381632E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.004016390115017223</v>
-      </c>
-      <c r="AK7">
-        <v>0.006982395632673037</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5155,7 +3889,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5291,106 +4025,106 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>46.00489690281642</v>
+        <v>46.51199944770453</v>
       </c>
       <c r="D2">
-        <v>3.230594823356597</v>
+        <v>2.426419758410326</v>
       </c>
       <c r="E2">
-        <v>13.4036181197197</v>
+        <v>10.13117284593922</v>
       </c>
       <c r="F2">
-        <v>5.845225689207651</v>
+        <v>11.09288237703938</v>
       </c>
       <c r="G2">
-        <v>5.020890654365544</v>
+        <v>2.139990064950866</v>
       </c>
       <c r="H2">
-        <v>0.1766622092393144</v>
+        <v>0.2483073184787928</v>
       </c>
       <c r="I2">
-        <v>7.847177788594451</v>
+        <v>13.11176134383675</v>
       </c>
       <c r="J2">
-        <v>13.18609807403286</v>
+        <v>11.60359522607707</v>
       </c>
       <c r="K2">
-        <v>2.418855934851739</v>
+        <v>1.948986805252453</v>
       </c>
       <c r="L2">
-        <v>2.302432119238141</v>
+        <v>0.4871503253415207</v>
       </c>
       <c r="M2">
-        <v>0.5252534666608979</v>
+        <v>0.1684899953697576</v>
       </c>
       <c r="N2">
-        <v>0.01898523232585781</v>
+        <v>0.1292444915993314</v>
       </c>
       <c r="O2">
-        <v>0.01930898559082964</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4359700967859572</v>
+        <v>0.1479189538881876</v>
       </c>
       <c r="R2">
-        <v>0.386491723857639</v>
+        <v>0.08680619758856314</v>
       </c>
       <c r="V2">
-        <v>0.1939258213100417</v>
+        <v>0.3024085993317003</v>
       </c>
       <c r="W2">
-        <v>0.05521410188693248</v>
+        <v>0.1680504956723194</v>
       </c>
       <c r="X2">
-        <v>0.08797795731781899</v>
+        <v>0.1074099229120864</v>
       </c>
       <c r="Y2">
-        <v>0.1504867747193396</v>
+        <v>0.1847536837406891</v>
       </c>
       <c r="Z2">
-        <v>0.1150150792551599</v>
+        <v>0.04976665504330385</v>
       </c>
       <c r="AA2">
-        <v>0.02384879363697045</v>
+        <v>0.2520891052153784</v>
       </c>
       <c r="AB2">
-        <v>0.06965213718341159</v>
+        <v>0.1192862806157183</v>
       </c>
       <c r="AC2">
-        <v>0.1749852839916268</v>
+        <v>0.2378645621665494</v>
       </c>
       <c r="AD2">
-        <v>0.02590314646336706</v>
+        <v>0.1919011566698175</v>
       </c>
       <c r="AE2">
-        <v>0.04414058673313178</v>
+        <v>0.03933985528160248</v>
       </c>
       <c r="AF2">
-        <v>0.05372680439292209</v>
+        <v>0.04026375307820827</v>
       </c>
       <c r="AG2">
-        <v>0.0176076032187763</v>
+        <v>0.04011913202028195</v>
       </c>
       <c r="AH2">
-        <v>0.02164067278521313</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.723967241168389E-14</v>
+        <v>1.700446555041278E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.002233854152462082</v>
+        <v>0.003058390203953753</v>
       </c>
       <c r="AK2">
-        <v>0.003510928780607159</v>
+        <v>0.002105988792120749</v>
       </c>
       <c r="AO2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -5398,106 +4132,106 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.68223196660676</v>
+        <v>46.9366748089444</v>
       </c>
       <c r="D3">
-        <v>3.631568840357837</v>
+        <v>2.529210546393829</v>
       </c>
       <c r="E3">
-        <v>12.16776226963247</v>
+        <v>10.33206446559292</v>
       </c>
       <c r="F3">
-        <v>5.73980714144566</v>
+        <v>11.27576148633348</v>
       </c>
       <c r="G3">
-        <v>5.764901161324138</v>
+        <v>2.148308161744193</v>
       </c>
       <c r="H3">
-        <v>0.2062272047173236</v>
+        <v>0.2149998606575285</v>
       </c>
       <c r="I3">
-        <v>8.393116440411395</v>
+        <v>12.14784766863399</v>
       </c>
       <c r="J3">
-        <v>16.60161579272669</v>
+        <v>11.80419653672609</v>
       </c>
       <c r="K3">
-        <v>2.520278973279984</v>
+        <v>1.840915071490623</v>
       </c>
       <c r="L3">
-        <v>2.197059733735113</v>
+        <v>0.4397613316031505</v>
       </c>
       <c r="M3">
-        <v>1.027018399555393</v>
+        <v>0.1988249733362572</v>
       </c>
       <c r="N3">
-        <v>0.02908048457380698</v>
+        <v>0.1314350885435429</v>
       </c>
       <c r="O3">
-        <v>0.03933159163341225</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.474774477383971</v>
+        <v>0.1463504944790179</v>
       </c>
       <c r="R3">
-        <v>0.4520491530313292</v>
+        <v>0.08572434514479908</v>
       </c>
       <c r="V3">
-        <v>0.3218090561643797</v>
+        <v>0.3171908457604613</v>
       </c>
       <c r="W3">
-        <v>0.1773862477383917</v>
+        <v>0.10579734725645</v>
       </c>
       <c r="X3">
-        <v>0.118914175926474</v>
+        <v>0.08989669647764319</v>
       </c>
       <c r="Y3">
-        <v>0.2419639506246485</v>
+        <v>0.173445843660241</v>
       </c>
       <c r="Z3">
-        <v>0.2091466212864527</v>
+        <v>0.04059398752722679</v>
       </c>
       <c r="AA3">
-        <v>0.01901267584273535</v>
+        <v>0.1755828691287559</v>
       </c>
       <c r="AB3">
-        <v>0.2480155122614968</v>
+        <v>0.1140942319366933</v>
       </c>
       <c r="AC3">
-        <v>0.299101575678365</v>
+        <v>0.1265655918408612</v>
       </c>
       <c r="AD3">
-        <v>0.1121562285684406</v>
+        <v>0.1409103516769115</v>
       </c>
       <c r="AE3">
-        <v>0.03130789558847598</v>
+        <v>0.04790938220272055</v>
       </c>
       <c r="AF3">
-        <v>0.08727609393963177</v>
+        <v>0.03001649372795699</v>
       </c>
       <c r="AG3">
-        <v>0.0252534201317656</v>
+        <v>0.07775490224732172</v>
       </c>
       <c r="AH3">
-        <v>0.0351113176671791</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.689528210222002E-14</v>
+        <v>1.731448364188235E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.004727654800544529</v>
+        <v>0.00219247931441095</v>
       </c>
       <c r="AK3">
-        <v>0.008571933113234453</v>
+        <v>0.00150456413755152</v>
       </c>
       <c r="AO3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -5505,106 +4239,106 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.3283920140248</v>
+        <v>46.38119048815842</v>
       </c>
       <c r="D4">
-        <v>2.955566222497138</v>
+        <v>2.401452655277673</v>
       </c>
       <c r="E4">
-        <v>14.62015648575972</v>
+        <v>10.07590103181317</v>
       </c>
       <c r="F4">
-        <v>6.302994181404937</v>
+        <v>8.73699031361479</v>
       </c>
       <c r="G4">
-        <v>4.380503846154055</v>
+        <v>4.01149514363938</v>
       </c>
       <c r="H4">
-        <v>0.1489122716302784</v>
+        <v>0.2671171426646677</v>
       </c>
       <c r="I4">
-        <v>8.415159417811715</v>
+        <v>13.87977038515327</v>
       </c>
       <c r="J4">
-        <v>12.22073721728863</v>
+        <v>11.49126407038531</v>
       </c>
       <c r="K4">
-        <v>2.453420173509431</v>
+        <v>1.956457711937302</v>
       </c>
       <c r="L4">
-        <v>0.6121128753352142</v>
+        <v>0.4591239544302497</v>
       </c>
       <c r="M4">
-        <v>0.5187755818652149</v>
+        <v>0.2095938715021688</v>
       </c>
       <c r="N4">
-        <v>0.01479897632342001</v>
+        <v>0.1296432314235978</v>
       </c>
       <c r="O4">
-        <v>0.02847073639544042</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.3847669684815272</v>
+        <v>0.2923724256630056</v>
       </c>
       <c r="R4">
-        <v>0.3127478309225847</v>
+        <v>0.2066289015071643</v>
       </c>
       <c r="V4">
-        <v>0.2293873746357716</v>
+        <v>0.3231959093119583</v>
       </c>
       <c r="W4">
-        <v>0.1435593839306954</v>
+        <v>0.09796161317940495</v>
       </c>
       <c r="X4">
-        <v>0.126779269753154</v>
+        <v>0.09170828858496415</v>
       </c>
       <c r="Y4">
-        <v>0.1783605753311058</v>
+        <v>0.1745533592536945</v>
       </c>
       <c r="Z4">
-        <v>0.1172827791773476</v>
+        <v>0.08852191341031176</v>
       </c>
       <c r="AA4">
-        <v>0.03199791956436453</v>
+        <v>0.2681373250206427</v>
       </c>
       <c r="AB4">
-        <v>0.09634093347466505</v>
+        <v>0.1172878403289035</v>
       </c>
       <c r="AC4">
-        <v>0.1455277858852596</v>
+        <v>0.2374262195469402</v>
       </c>
       <c r="AD4">
-        <v>0.1517225460941439</v>
+        <v>0.2105084262011219</v>
       </c>
       <c r="AE4">
-        <v>0.03964841233730442</v>
+        <v>0.05800845198399012</v>
       </c>
       <c r="AF4">
-        <v>0.04822459253218347</v>
+        <v>0.03941606153978715</v>
       </c>
       <c r="AG4">
-        <v>0.01480190142135209</v>
+        <v>0.04039469848832866</v>
       </c>
       <c r="AH4">
-        <v>0.02516985226052851</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.771353678971882E-14</v>
+        <v>1.745778904861879E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.004710406539836775</v>
+        <v>0.005491241413892006</v>
       </c>
       <c r="AK4">
-        <v>0.006224410917003023</v>
+        <v>0.005482789227176382</v>
       </c>
       <c r="AO4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -5612,320 +4346,106 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.54254884526446</v>
+        <v>46.7071442395246</v>
       </c>
       <c r="D5">
-        <v>3.257064613859672</v>
+        <v>2.523551021711589</v>
       </c>
       <c r="E5">
-        <v>13.48567783768961</v>
+        <v>10.36320396338165</v>
       </c>
       <c r="F5">
-        <v>6.767576341407572</v>
+        <v>8.954685826286742</v>
       </c>
       <c r="G5">
-        <v>5.076878978828285</v>
+        <v>4.144716723465629</v>
       </c>
       <c r="H5">
-        <v>0.20290031186416</v>
+        <v>0.2442832465632688</v>
       </c>
       <c r="I5">
-        <v>8.425538137684494</v>
+        <v>12.57455372276036</v>
       </c>
       <c r="J5">
-        <v>14.36496352481713</v>
+        <v>11.69240993526402</v>
       </c>
       <c r="K5">
-        <v>1.873350792957715</v>
+        <v>1.986823369411126</v>
       </c>
       <c r="L5">
-        <v>1.095411794401372</v>
+        <v>0.4797882000869518</v>
       </c>
       <c r="M5">
-        <v>0.8563760535360878</v>
+        <v>0.2092216419834134</v>
       </c>
       <c r="N5">
-        <v>0.01760374623090358</v>
+        <v>0.1196181095606454</v>
       </c>
       <c r="O5">
-        <v>0.03410902145854449</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4030044134064639</v>
+        <v>0.2940287195294751</v>
       </c>
       <c r="R5">
-        <v>0.3375641729422075</v>
+        <v>0.2082648403185238</v>
       </c>
       <c r="V5">
-        <v>0.2798594034183252</v>
+        <v>0.2600697915787833</v>
       </c>
       <c r="W5">
-        <v>0.2029014375799297</v>
+        <v>0.1820832450007301</v>
       </c>
       <c r="X5">
-        <v>0.1213945555706496</v>
+        <v>0.1047011098762425</v>
       </c>
       <c r="Y5">
-        <v>0.1633460568843312</v>
+        <v>0.1116206077001136</v>
       </c>
       <c r="Z5">
-        <v>0.1120671753100316</v>
+        <v>0.06199274943916857</v>
       </c>
       <c r="AA5">
-        <v>0.04672956207479464</v>
+        <v>0.2376491747261097</v>
       </c>
       <c r="AB5">
-        <v>0.09485400988382457</v>
+        <v>0.1082656965527119</v>
       </c>
       <c r="AC5">
-        <v>0.1663470520370216</v>
+        <v>0.2012857318827308</v>
       </c>
       <c r="AD5">
-        <v>0.1193092663258799</v>
+        <v>0.1352328865544118</v>
       </c>
       <c r="AE5">
-        <v>0.04127903998778418</v>
+        <v>0.05069487638622824</v>
       </c>
       <c r="AF5">
-        <v>0.04435319703921536</v>
+        <v>0.04897823174786015</v>
       </c>
       <c r="AG5">
-        <v>0.01389981068740886</v>
+        <v>0.03000858572347229</v>
       </c>
       <c r="AH5">
-        <v>0.02989002088701224</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.774885112044123E-14</v>
+        <v>1.718174381617232E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.003970898693605875</v>
+        <v>0.003819572089699947</v>
       </c>
       <c r="AK5">
-        <v>0.005570563761818395</v>
+        <v>0.003833287625731855</v>
       </c>
       <c r="AO5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.71309165655057</v>
-      </c>
-      <c r="D6">
-        <v>3.356912153097104</v>
-      </c>
-      <c r="E6">
-        <v>13.06153100794551</v>
-      </c>
-      <c r="F6">
-        <v>6.803122920142523</v>
-      </c>
-      <c r="G6">
-        <v>5.497999407204582</v>
-      </c>
-      <c r="H6">
-        <v>0.1573750940864688</v>
-      </c>
-      <c r="I6">
-        <v>7.840891750536351</v>
-      </c>
-      <c r="J6">
-        <v>12.99475033774619</v>
-      </c>
-      <c r="K6">
-        <v>2.354991002383572</v>
-      </c>
-      <c r="L6">
-        <v>1.682817012804753</v>
-      </c>
-      <c r="M6">
-        <v>0.5008466894938277</v>
-      </c>
-      <c r="N6">
-        <v>0.02019278554856429</v>
-      </c>
-      <c r="O6">
-        <v>0.01547818245997819</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4210488951621948</v>
-      </c>
-      <c r="R6">
-        <v>0.3636570366827692</v>
-      </c>
-      <c r="V6">
-        <v>0.2627983379610341</v>
-      </c>
-      <c r="W6">
-        <v>0.1461923564282695</v>
-      </c>
-      <c r="X6">
-        <v>0.130018315111142</v>
-      </c>
-      <c r="Y6">
-        <v>0.2196141567736444</v>
-      </c>
-      <c r="Z6">
-        <v>0.1586809912280305</v>
-      </c>
-      <c r="AA6">
-        <v>0.03172366307167424</v>
-      </c>
-      <c r="AB6">
-        <v>0.08305202254120034</v>
-      </c>
-      <c r="AC6">
-        <v>0.1316034386047247</v>
-      </c>
-      <c r="AD6">
-        <v>0.08934672641556014</v>
-      </c>
-      <c r="AE6">
-        <v>0.02648394773342016</v>
-      </c>
-      <c r="AF6">
-        <v>0.06930241340679401</v>
-      </c>
-      <c r="AG6">
-        <v>0.0178137822711067</v>
-      </c>
-      <c r="AH6">
-        <v>0.01442395601547256</v>
-      </c>
-      <c r="AI6">
-        <v>1.769414094316084E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.003191507397683948</v>
-      </c>
-      <c r="AK6">
-        <v>0.004762359395649541</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.01914781451538</v>
-      </c>
-      <c r="D7">
-        <v>3.23162598090061</v>
-      </c>
-      <c r="E7">
-        <v>13.40611993092692</v>
-      </c>
-      <c r="F7">
-        <v>5.839507829003931</v>
-      </c>
-      <c r="G7">
-        <v>5.018856027497241</v>
-      </c>
-      <c r="H7">
-        <v>0.176778008440822</v>
-      </c>
-      <c r="I7">
-        <v>7.847913294852969</v>
-      </c>
-      <c r="J7">
-        <v>13.19288616218675</v>
-      </c>
-      <c r="K7">
-        <v>2.419772536301581</v>
-      </c>
-      <c r="L7">
-        <v>2.304162991897879</v>
-      </c>
-      <c r="M7">
-        <v>0.5243477356433903</v>
-      </c>
-      <c r="N7">
-        <v>0.01888168783253752</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4361118382684492</v>
-      </c>
-      <c r="R7">
-        <v>0.3867149666221628</v>
-      </c>
-      <c r="V7">
-        <v>0.1916195740835805</v>
-      </c>
-      <c r="W7">
-        <v>0.05409311120470031</v>
-      </c>
-      <c r="X7">
-        <v>0.09032932374897931</v>
-      </c>
-      <c r="Y7">
-        <v>0.151335098022008</v>
-      </c>
-      <c r="Z7">
-        <v>0.1153039590727137</v>
-      </c>
-      <c r="AA7">
-        <v>0.02401772552409275</v>
-      </c>
-      <c r="AB7">
-        <v>0.07013941643462922</v>
-      </c>
-      <c r="AC7">
-        <v>0.1772143225615655</v>
-      </c>
-      <c r="AD7">
-        <v>0.02620171432967835</v>
-      </c>
-      <c r="AE7">
-        <v>0.0444724806387991</v>
-      </c>
-      <c r="AF7">
-        <v>0.05285680606158651</v>
-      </c>
-      <c r="AG7">
-        <v>0.01758052099722884</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.692036968359359E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.002265675495872248</v>
-      </c>
-      <c r="AK7">
-        <v>0.00356372714231343</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5935,7 +4455,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6071,112 +4591,112 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>45.97529116163559</v>
+        <v>46.53194148050093</v>
       </c>
       <c r="D2">
-        <v>3.22848983175221</v>
+        <v>2.427404740340567</v>
       </c>
       <c r="E2">
-        <v>13.39509049088806</v>
+        <v>10.13561845203448</v>
       </c>
       <c r="F2">
-        <v>5.875766967478722</v>
+        <v>11.82655607881054</v>
       </c>
       <c r="G2">
-        <v>5.047906590189092</v>
+        <v>1.369383286230196</v>
       </c>
       <c r="H2">
-        <v>0.176547087285876</v>
+        <v>0.2483109685282846</v>
       </c>
       <c r="I2">
-        <v>7.842088503848543</v>
+        <v>13.11735617734448</v>
       </c>
       <c r="J2">
-        <v>13.17750599591551</v>
+        <v>11.60846122885196</v>
       </c>
       <c r="K2">
-        <v>2.417289352925459</v>
+        <v>1.949773773580769</v>
       </c>
       <c r="L2">
-        <v>2.30083972991083</v>
+        <v>0.4873344921914874</v>
       </c>
       <c r="M2">
-        <v>0.524916003092354</v>
+        <v>0.1685624022060113</v>
       </c>
       <c r="N2">
-        <v>0.01897251413118122</v>
+        <v>0.1292969193802978</v>
       </c>
       <c r="O2">
-        <v>0.01929577094656439</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4360056549389891</v>
+        <v>0.09435800221759998</v>
       </c>
       <c r="S2">
-        <v>0.8592028249826208</v>
+        <v>0.115795955557399</v>
       </c>
       <c r="T2">
-        <v>0.7731049878896787</v>
+        <v>0.1041924307228477</v>
       </c>
       <c r="V2">
-        <v>0.2113577903493348</v>
+        <v>0.3188656882800723</v>
       </c>
       <c r="W2">
-        <v>0.05539171139935018</v>
+        <v>0.167659354483512</v>
       </c>
       <c r="X2">
-        <v>0.09089455065627794</v>
+        <v>0.1120188448489693</v>
       </c>
       <c r="Y2">
-        <v>0.16624248446457</v>
+        <v>0.199185334727339</v>
       </c>
       <c r="Z2">
-        <v>0.1322770898012615</v>
+        <v>0.03068264404481601</v>
       </c>
       <c r="AA2">
-        <v>0.02383071598678289</v>
+        <v>0.2519998962135978</v>
       </c>
       <c r="AB2">
-        <v>0.07105560725907631</v>
+        <v>0.1267394410648331</v>
       </c>
       <c r="AC2">
-        <v>0.1734746466502127</v>
+        <v>0.2368087540294659</v>
       </c>
       <c r="AD2">
-        <v>0.02631316080169682</v>
+        <v>0.1916185918328268</v>
       </c>
       <c r="AE2">
-        <v>0.0442330979889325</v>
+        <v>0.03934940958580114</v>
       </c>
       <c r="AF2">
-        <v>0.05367752250187254</v>
+        <v>0.04028039866040586</v>
       </c>
       <c r="AG2">
-        <v>0.01759574154063965</v>
+        <v>0.04012905443649015</v>
       </c>
       <c r="AH2">
-        <v>0.02162506481433304</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.742496910666126E-14</v>
+        <v>2.230464985569176E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.002596396319322009</v>
+        <v>0.001579132226890638</v>
       </c>
       <c r="AL2">
-        <v>0.009070665267900666</v>
+        <v>0.002139442642131929</v>
       </c>
       <c r="AM2">
-        <v>0.008161724284639705</v>
+        <v>0.001925056261272796</v>
       </c>
       <c r="AO2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -6184,112 +4704,112 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.64757766381594</v>
+        <v>46.97405211982321</v>
       </c>
       <c r="D3">
-        <v>3.628485151017105</v>
+        <v>2.531204319544166</v>
       </c>
       <c r="E3">
-        <v>12.15775035697791</v>
+        <v>10.3404414513018</v>
       </c>
       <c r="F3">
-        <v>5.752299039210212</v>
+        <v>11.97585630982777</v>
       </c>
       <c r="G3">
-        <v>5.826379696257232</v>
+        <v>1.379209223934266</v>
       </c>
       <c r="H3">
-        <v>0.2060548212315859</v>
+        <v>0.2151269387631568</v>
       </c>
       <c r="I3">
-        <v>8.38602276995333</v>
+        <v>12.15753727635487</v>
       </c>
       <c r="J3">
-        <v>16.58761746294389</v>
+        <v>11.81360347826687</v>
       </c>
       <c r="K3">
-        <v>2.518162211495561</v>
+        <v>1.842358729493281</v>
       </c>
       <c r="L3">
-        <v>2.195132476750461</v>
+        <v>0.4400909058482703</v>
       </c>
       <c r="M3">
-        <v>1.026164511470796</v>
+        <v>0.1989848423444029</v>
       </c>
       <c r="N3">
-        <v>0.0290560355856178</v>
+        <v>0.1315344044979316</v>
       </c>
       <c r="O3">
-        <v>0.03929780329036455</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.476871346803351</v>
+        <v>0.09389762919665916</v>
       </c>
       <c r="S3">
-        <v>1.013256923322945</v>
+        <v>0.1151704961502833</v>
       </c>
       <c r="T3">
-        <v>0.911721841057219</v>
+        <v>0.1036296465078709</v>
       </c>
       <c r="V3">
-        <v>0.3511462673043753</v>
+        <v>0.3068414956898333</v>
       </c>
       <c r="W3">
-        <v>0.1769062777017084</v>
+        <v>0.1057594085694478</v>
       </c>
       <c r="X3">
-        <v>0.1269915826408622</v>
+        <v>0.09619097789825233</v>
       </c>
       <c r="Y3">
-        <v>0.2635224987701676</v>
+        <v>0.187172757331672</v>
       </c>
       <c r="Z3">
-        <v>0.2393739871561429</v>
+        <v>0.02489664766193915</v>
       </c>
       <c r="AA3">
-        <v>0.01900916035611033</v>
+        <v>0.1756500646371043</v>
       </c>
       <c r="AB3">
-        <v>0.2469435608696369</v>
+        <v>0.1202422214233283</v>
       </c>
       <c r="AC3">
-        <v>0.2978565130736727</v>
+        <v>0.1310776424256192</v>
       </c>
       <c r="AD3">
-        <v>0.1121512040888162</v>
+        <v>0.1408053590739796</v>
       </c>
       <c r="AE3">
-        <v>0.03239316456055612</v>
+        <v>0.04794262839441774</v>
       </c>
       <c r="AF3">
-        <v>0.08720742009157628</v>
+        <v>0.03004125148278108</v>
       </c>
       <c r="AG3">
-        <v>0.0252325307410973</v>
+        <v>0.07780348869869086</v>
       </c>
       <c r="AH3">
-        <v>0.03508056153164499</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.830792717068583E-14</v>
+        <v>2.211363254899225E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.004575916998441751</v>
+        <v>0.001087137646744047</v>
       </c>
       <c r="AL3">
-        <v>0.01857807230458882</v>
+        <v>0.001471757006572641</v>
       </c>
       <c r="AM3">
-        <v>0.01671642590833339</v>
+        <v>0.001324277166763162</v>
       </c>
       <c r="AO3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -6297,112 +4817,112 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.30477418855778</v>
+        <v>46.41924353240608</v>
       </c>
       <c r="D4">
-        <v>2.954045338072102</v>
+        <v>2.403400403458311</v>
       </c>
       <c r="E4">
-        <v>14.61296463280958</v>
+        <v>10.0842849527056</v>
       </c>
       <c r="F4">
-        <v>6.358584714378025</v>
+        <v>9.309925877217756</v>
       </c>
       <c r="G4">
-        <v>4.369624648349451</v>
+        <v>3.367178297465889</v>
       </c>
       <c r="H4">
-        <v>0.1488358760840472</v>
+        <v>0.2672296714456224</v>
       </c>
       <c r="I4">
-        <v>8.4109123874131</v>
+        <v>13.89114477905781</v>
       </c>
       <c r="J4">
-        <v>12.21455547074913</v>
+        <v>11.50059411283291</v>
       </c>
       <c r="K4">
-        <v>2.45216042930459</v>
+        <v>1.958006899605348</v>
       </c>
       <c r="L4">
-        <v>0.6117775282233483</v>
+        <v>0.4594760575462679</v>
       </c>
       <c r="M4">
-        <v>0.5185175941083476</v>
+        <v>0.2097660687936277</v>
       </c>
       <c r="N4">
-        <v>0.01479139229453243</v>
+        <v>0.1297493474647784</v>
       </c>
       <c r="O4">
-        <v>0.02845579965596598</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.3820966838097092</v>
+        <v>0.2455360612673625</v>
       </c>
       <c r="S4">
-        <v>0.6872916447796174</v>
+        <v>0.3617235344142517</v>
       </c>
       <c r="T4">
-        <v>0.6184204512185713</v>
+        <v>0.3254764306651324</v>
       </c>
       <c r="V4">
-        <v>0.2498229264286952</v>
+        <v>0.3336007211948232</v>
       </c>
       <c r="W4">
-        <v>0.1431303994486539</v>
+        <v>0.09801983943922427</v>
       </c>
       <c r="X4">
-        <v>0.1296974274551429</v>
+        <v>0.09784717842829868</v>
       </c>
       <c r="Y4">
-        <v>0.1917202091585856</v>
+        <v>0.1751410518521489</v>
       </c>
       <c r="Z4">
-        <v>0.1261109221352973</v>
+        <v>0.07476540100594199</v>
       </c>
       <c r="AA4">
-        <v>0.03197692014920007</v>
+        <v>0.2681589500241955</v>
       </c>
       <c r="AB4">
-        <v>0.09740381289376439</v>
+        <v>0.1262488032571684</v>
       </c>
       <c r="AC4">
-        <v>0.145830961344109</v>
+        <v>0.236527574912643</v>
       </c>
       <c r="AD4">
-        <v>0.1513331920491799</v>
+        <v>0.2102729547183761</v>
       </c>
       <c r="AE4">
-        <v>0.03963418426639797</v>
+        <v>0.05803936675977669</v>
       </c>
       <c r="AF4">
-        <v>0.04819045021424587</v>
+        <v>0.03944581807931366</v>
       </c>
       <c r="AG4">
-        <v>0.01479432218611661</v>
+        <v>0.04042768191732091</v>
       </c>
       <c r="AH4">
-        <v>0.02515585138856668</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.836190859971214E-14</v>
+        <v>1.716409838510709E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.003232356456620737</v>
+        <v>0.003709725041795672</v>
       </c>
       <c r="AL4">
-        <v>0.009410511257826028</v>
+        <v>0.007243055364412217</v>
       </c>
       <c r="AM4">
-        <v>0.008467515446267846</v>
+        <v>0.006517253047790486</v>
       </c>
       <c r="AO4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -6410,338 +4930,112 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.50750313840947</v>
+        <v>46.72340647775186</v>
       </c>
       <c r="D5">
-        <v>3.254430850168795</v>
+        <v>2.524367105938264</v>
       </c>
       <c r="E5">
-        <v>13.47520130206991</v>
+        <v>10.36690177598775</v>
       </c>
       <c r="F5">
-        <v>6.734560724943482</v>
+        <v>9.560656104564464</v>
       </c>
       <c r="G5">
-        <v>5.179341618175799</v>
+        <v>3.508754197498796</v>
       </c>
       <c r="H5">
-        <v>0.2027374772382567</v>
+        <v>0.2442815749566448</v>
       </c>
       <c r="I5">
-        <v>8.41888892642466</v>
+        <v>12.57888741073421</v>
       </c>
       <c r="J5">
-        <v>14.35359882807227</v>
+        <v>11.69637934473982</v>
       </c>
       <c r="K5">
-        <v>1.87185825217518</v>
+        <v>1.987484461486833</v>
       </c>
       <c r="L5">
-        <v>1.094499940014875</v>
+        <v>0.4799297223566534</v>
       </c>
       <c r="M5">
-        <v>0.8557083358260202</v>
+        <v>0.2092928700865454</v>
       </c>
       <c r="N5">
-        <v>0.01758943810926252</v>
+        <v>0.1196589538981614</v>
       </c>
       <c r="O5">
-        <v>0.03408116837202479</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4089975829627258</v>
+        <v>0.248247747655261</v>
       </c>
       <c r="S5">
-        <v>0.7691633059399171</v>
+        <v>0.3670222396871783</v>
       </c>
       <c r="T5">
-        <v>0.6920880274525318</v>
+        <v>0.330244170431281</v>
       </c>
       <c r="V5">
-        <v>0.2864457070337278</v>
+        <v>0.275873418480464</v>
       </c>
       <c r="W5">
-        <v>0.2020415698630441</v>
+        <v>0.1816132967432704</v>
       </c>
       <c r="X5">
-        <v>0.1262653464797846</v>
+        <v>0.107825042973008</v>
       </c>
       <c r="Y5">
-        <v>0.1726620157352002</v>
+        <v>0.1042090824571406</v>
       </c>
       <c r="Z5">
-        <v>0.1247775076895513</v>
+        <v>0.05225721654326474</v>
       </c>
       <c r="AA5">
-        <v>0.04668360436018707</v>
+        <v>0.2375747529959923</v>
       </c>
       <c r="AB5">
-        <v>0.09741929197660029</v>
+        <v>0.1131436900859733</v>
       </c>
       <c r="AC5">
-        <v>0.1682047308241563</v>
+        <v>0.2001557138873298</v>
       </c>
       <c r="AD5">
-        <v>0.1190788992856591</v>
+        <v>0.1350148716716283</v>
       </c>
       <c r="AE5">
-        <v>0.04132552871388569</v>
+        <v>0.05069317277079182</v>
       </c>
       <c r="AF5">
-        <v>0.04435824614001561</v>
+        <v>0.0489835401873819</v>
       </c>
       <c r="AG5">
-        <v>0.01388828699747969</v>
+        <v>0.03001901005493477</v>
       </c>
       <c r="AH5">
-        <v>0.02986507906247583</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.301774521633289E-14</v>
+        <v>1.71405428867461E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.003134405131187448</v>
+        <v>0.002818155686882603</v>
       </c>
       <c r="AL5">
-        <v>0.009970670776819061</v>
+        <v>0.005543181885295023</v>
       </c>
       <c r="AM5">
-        <v>0.008971543256181212</v>
+        <v>0.004987718196094112</v>
       </c>
       <c r="AO5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.6784417751588</v>
-      </c>
-      <c r="D6">
-        <v>3.354318155705423</v>
-      </c>
-      <c r="E6">
-        <v>13.05172693985334</v>
-      </c>
-      <c r="F6">
-        <v>6.872478842952247</v>
-      </c>
-      <c r="G6">
-        <v>5.495266812688617</v>
-      </c>
-      <c r="H6">
-        <v>0.1572545404427231</v>
-      </c>
-      <c r="I6">
-        <v>7.834914514070756</v>
-      </c>
-      <c r="J6">
-        <v>12.98483573149504</v>
-      </c>
-      <c r="K6">
-        <v>2.353190282753525</v>
-      </c>
-      <c r="L6">
-        <v>1.681463753119767</v>
-      </c>
-      <c r="M6">
-        <v>0.5004657181301472</v>
-      </c>
-      <c r="N6">
-        <v>0.02017684607937762</v>
-      </c>
-      <c r="O6">
-        <v>0.01546608755023191</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4184564323514021</v>
-      </c>
-      <c r="S6">
-        <v>0.7997322483977206</v>
-      </c>
-      <c r="T6">
-        <v>0.7195937585808233</v>
-      </c>
-      <c r="V6">
-        <v>0.2853661501404256</v>
-      </c>
-      <c r="W6">
-        <v>0.1457542708008554</v>
-      </c>
-      <c r="X6">
-        <v>0.1336074425423768</v>
-      </c>
-      <c r="Y6">
-        <v>0.2459983171072076</v>
-      </c>
-      <c r="Z6">
-        <v>0.1797621620542143</v>
-      </c>
-      <c r="AA6">
-        <v>0.0317001426683392</v>
-      </c>
-      <c r="AB6">
-        <v>0.08564552082381223</v>
-      </c>
-      <c r="AC6">
-        <v>0.1352869823328333</v>
-      </c>
-      <c r="AD6">
-        <v>0.08932014351388473</v>
-      </c>
-      <c r="AE6">
-        <v>0.02691195280689007</v>
-      </c>
-      <c r="AF6">
-        <v>0.06923184095172399</v>
-      </c>
-      <c r="AG6">
-        <v>0.01779949029341966</v>
-      </c>
-      <c r="AH6">
-        <v>0.01441227999492406</v>
-      </c>
-      <c r="AI6">
-        <v>1.778523107379694E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.00251419743926502</v>
-      </c>
-      <c r="AL6">
-        <v>0.008263142166990537</v>
-      </c>
-      <c r="AM6">
-        <v>0.007435120368780359</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>45.99087026054571</v>
-      </c>
-      <c r="D7">
-        <v>3.229614017948429</v>
-      </c>
-      <c r="E7">
-        <v>13.39798218700257</v>
-      </c>
-      <c r="F7">
-        <v>5.868630903117396</v>
-      </c>
-      <c r="G7">
-        <v>5.044703351587964</v>
-      </c>
-      <c r="H7">
-        <v>0.1766681774207301</v>
-      </c>
-      <c r="I7">
-        <v>7.843051309576397</v>
-      </c>
-      <c r="J7">
-        <v>13.184671902408</v>
-      </c>
-      <c r="K7">
-        <v>2.418275960847868</v>
-      </c>
-      <c r="L7">
-        <v>2.302636643896035</v>
-      </c>
-      <c r="M7">
-        <v>0.524025637701655</v>
-      </c>
-      <c r="N7">
-        <v>0.01886964794725145</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4361495262590891</v>
-      </c>
-      <c r="S7">
-        <v>0.8597056595237769</v>
-      </c>
-      <c r="T7">
-        <v>0.7735574350657677</v>
-      </c>
-      <c r="V7">
-        <v>0.2093224262147925</v>
-      </c>
-      <c r="W7">
-        <v>0.05426568906191526</v>
-      </c>
-      <c r="X7">
-        <v>0.09345794254664945</v>
-      </c>
-      <c r="Y7">
-        <v>0.1673800091391321</v>
-      </c>
-      <c r="Z7">
-        <v>0.1325806451456721</v>
-      </c>
-      <c r="AA7">
-        <v>0.02400218722279848</v>
-      </c>
-      <c r="AB7">
-        <v>0.07150861535574227</v>
-      </c>
-      <c r="AC7">
-        <v>0.175649258360018</v>
-      </c>
-      <c r="AD7">
-        <v>0.02663514544780743</v>
-      </c>
-      <c r="AE7">
-        <v>0.04458104313791338</v>
-      </c>
-      <c r="AF7">
-        <v>0.05280562327532014</v>
-      </c>
-      <c r="AG7">
-        <v>0.01756908983038914</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>2.221938341364141E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.002595983553321894</v>
-      </c>
-      <c r="AL7">
-        <v>0.009077928469924839</v>
-      </c>
-      <c r="AM7">
-        <v>0.008168259665517921</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6751,7 +5045,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6887,106 +5181,106 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>46.01624313883618</v>
+        <v>46.52112938576894</v>
       </c>
       <c r="D2">
-        <v>3.231391469939847</v>
+        <v>2.426894687967668</v>
       </c>
       <c r="E2">
-        <v>13.40692305897781</v>
+        <v>10.13316136035643</v>
       </c>
       <c r="F2">
-        <v>5.965132715299903</v>
+        <v>10.98072925597263</v>
       </c>
       <c r="G2">
-        <v>4.878398122948239</v>
+        <v>2.235427139971782</v>
       </c>
       <c r="H2">
-        <v>0.1772006962408024</v>
+        <v>0.2481602331844865</v>
       </c>
       <c r="I2">
-        <v>7.849112770958921</v>
+        <v>13.1143340218449</v>
       </c>
       <c r="J2">
-        <v>13.18935002418334</v>
+        <v>11.60587151700623</v>
       </c>
       <c r="K2">
-        <v>2.419452547635755</v>
+        <v>1.949369738194243</v>
       </c>
       <c r="L2">
-        <v>2.302999958072174</v>
+        <v>0.4872460356176045</v>
       </c>
       <c r="M2">
-        <v>0.5253832515670078</v>
+        <v>0.1685229240212425</v>
       </c>
       <c r="N2">
-        <v>0.0190433178087467</v>
+        <v>0.129153700093833</v>
       </c>
       <c r="O2">
-        <v>0.01936892753126251</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>0.4238980759468343</v>
+        <v>0.1548158768700303</v>
       </c>
       <c r="U2">
-        <v>0.7344865024680366</v>
+        <v>0.182700268205009</v>
       </c>
       <c r="V2">
-        <v>0.1946585980929079</v>
+        <v>0.2987020571643559</v>
       </c>
       <c r="W2">
-        <v>0.0552326914729435</v>
+        <v>0.1680460350869064</v>
       </c>
       <c r="X2">
-        <v>0.08800473141191263</v>
+        <v>0.1069148861924332</v>
       </c>
       <c r="Y2">
-        <v>0.1359168726693269</v>
+        <v>0.1740038628420574</v>
       </c>
       <c r="Z2">
-        <v>0.1293111538524913</v>
+        <v>0.04825095375731416</v>
       </c>
       <c r="AA2">
-        <v>0.02391435562295285</v>
+        <v>0.2519607897076533</v>
       </c>
       <c r="AB2">
-        <v>0.06968255554236051</v>
+        <v>0.1184366599074389</v>
       </c>
       <c r="AC2">
-        <v>0.1750793579118195</v>
+        <v>0.2375441257768809</v>
       </c>
       <c r="AD2">
-        <v>0.02592818993626744</v>
+        <v>0.1919327874869556</v>
       </c>
       <c r="AE2">
-        <v>0.0441583679958036</v>
+        <v>0.0393455728750912</v>
       </c>
       <c r="AF2">
-        <v>0.05374274968356348</v>
+        <v>0.04027091544167564</v>
       </c>
       <c r="AG2">
-        <v>0.01765934528069966</v>
+        <v>0.0400997174805279</v>
       </c>
       <c r="AH2">
-        <v>0.0217108835077946</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.866305089218474E-14</v>
+        <v>1.771813886690547E-14</v>
       </c>
       <c r="AJ2">
-        <v>0.001933063722094192</v>
+        <v>0.002103773904820587</v>
       </c>
       <c r="AN2">
-        <v>0.005810304570630573</v>
+        <v>0.002915035583648978</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -6994,106 +5288,106 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>41.69494944393052</v>
+        <v>46.9470699195202</v>
       </c>
       <c r="D3">
-        <v>3.632675304769804</v>
+        <v>2.529770620254585</v>
       </c>
       <c r="E3">
-        <v>12.17147367852923</v>
+        <v>10.33435344709413</v>
       </c>
       <c r="F3">
-        <v>5.888142090446102</v>
+        <v>11.20273551350154</v>
       </c>
       <c r="G3">
-        <v>5.588781558754735</v>
+        <v>2.203268301234283</v>
       </c>
       <c r="H3">
-        <v>0.2068927667295324</v>
+        <v>0.214363908967799</v>
       </c>
       <c r="I3">
-        <v>8.395669535080126</v>
+        <v>12.15053830521986</v>
       </c>
       <c r="J3">
-        <v>16.60668020685083</v>
+        <v>11.80681198799961</v>
       </c>
       <c r="K3">
-        <v>2.521049423914002</v>
+        <v>1.841323447781192</v>
       </c>
       <c r="L3">
-        <v>2.197730072555426</v>
+        <v>0.4398586325871533</v>
       </c>
       <c r="M3">
-        <v>1.02733245317918</v>
+        <v>0.1988688904811042</v>
       </c>
       <c r="N3">
-        <v>0.02916965897091628</v>
+        <v>0.1310370253585535</v>
       </c>
       <c r="O3">
-        <v>0.03945380628959451</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>0.4605964397216124</v>
+        <v>0.1503500630045207</v>
       </c>
       <c r="U3">
-        <v>0.8520224820605288</v>
+        <v>0.1765413263828042</v>
       </c>
       <c r="V3">
-        <v>0.3232724685801224</v>
+        <v>0.3150305723035975</v>
       </c>
       <c r="W3">
-        <v>0.1774275525731456</v>
+        <v>0.1057995712805553</v>
       </c>
       <c r="X3">
-        <v>0.1191593175176687</v>
+        <v>0.08961875482964257</v>
       </c>
       <c r="Y3">
-        <v>0.2160930940390715</v>
+        <v>0.1618933650865717</v>
       </c>
       <c r="Z3">
-        <v>0.230709808092376</v>
+        <v>0.04561031656709856</v>
       </c>
       <c r="AA3">
-        <v>0.01901087368193588</v>
+        <v>0.1749939521260455</v>
       </c>
       <c r="AB3">
-        <v>0.2479030543443179</v>
+        <v>0.1137293282808238</v>
       </c>
       <c r="AC3">
-        <v>0.2993801842465195</v>
+        <v>0.1263495325817473</v>
       </c>
       <c r="AD3">
-        <v>0.1122384241323709</v>
+        <v>0.1409417686975047</v>
       </c>
       <c r="AE3">
-        <v>0.03135676985701375</v>
+        <v>0.04791784777474592</v>
       </c>
       <c r="AF3">
-        <v>0.08731427061858552</v>
+        <v>0.03002196382648021</v>
       </c>
       <c r="AG3">
-        <v>0.02532439336416302</v>
+        <v>0.07750776544502944</v>
       </c>
       <c r="AH3">
-        <v>0.03521572604473806</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.879140233708614E-14</v>
+        <v>1.799905255411636E-14</v>
       </c>
       <c r="AJ3">
-        <v>0.003319809330260584</v>
+        <v>0.001648604844358597</v>
       </c>
       <c r="AN3">
-        <v>0.01138993405497779</v>
+        <v>0.002261737381613292</v>
       </c>
       <c r="AO3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -7101,106 +5395,106 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>47.33282820773218</v>
+        <v>46.37496550603945</v>
       </c>
       <c r="D4">
-        <v>2.955842515921465</v>
+        <v>2.40112989208607</v>
       </c>
       <c r="E4">
-        <v>14.6215254678939</v>
+        <v>10.07454755365195</v>
       </c>
       <c r="F4">
-        <v>6.289803710858231</v>
+        <v>8.367623758492511</v>
       </c>
       <c r="G4">
-        <v>4.384870527005114</v>
+        <v>4.394321627132395</v>
       </c>
       <c r="H4">
-        <v>0.1492789873218213</v>
+        <v>0.2659159688346666</v>
       </c>
       <c r="I4">
-        <v>8.415947523656305</v>
+        <v>13.87790558669945</v>
       </c>
       <c r="J4">
-        <v>12.22188258157485</v>
+        <v>11.48972040136564</v>
       </c>
       <c r="K4">
-        <v>2.453652733916473</v>
+        <v>1.956198550427802</v>
       </c>
       <c r="L4">
-        <v>0.6121703042570094</v>
+        <v>0.4590624536636593</v>
       </c>
       <c r="M4">
-        <v>0.518824375122928</v>
+        <v>0.2095660398565281</v>
       </c>
       <c r="N4">
-        <v>0.01483408494235316</v>
+        <v>0.1290426617498701</v>
       </c>
       <c r="O4">
-        <v>0.0285389797973709</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.3854537085915469</v>
+        <v>0.3208948511311225</v>
       </c>
       <c r="U4">
-        <v>0.6262396580864122</v>
+        <v>0.4712600872183025</v>
       </c>
       <c r="V4">
-        <v>0.2300162674673384</v>
+        <v>0.320295901584247</v>
       </c>
       <c r="W4">
-        <v>0.1435613275823804</v>
+        <v>0.09791274762917823</v>
       </c>
       <c r="X4">
-        <v>0.1267350461516641</v>
+        <v>0.0910936511911638</v>
       </c>
       <c r="Y4">
-        <v>0.1564921319938444</v>
+        <v>0.1475013111500762</v>
       </c>
       <c r="Z4">
-        <v>0.128826798167105</v>
+        <v>0.093799174971449</v>
       </c>
       <c r="AA4">
-        <v>0.03208094716439142</v>
+        <v>0.266966321177816</v>
       </c>
       <c r="AB4">
-        <v>0.09633749118792334</v>
+        <v>0.1163364495237402</v>
       </c>
       <c r="AC4">
-        <v>0.1455958907468843</v>
+        <v>0.2370871533316899</v>
       </c>
       <c r="AD4">
-        <v>0.1517814257551678</v>
+        <v>0.2105035097126116</v>
       </c>
       <c r="AE4">
-        <v>0.03965356039566659</v>
+        <v>0.0579998302885104</v>
       </c>
       <c r="AF4">
-        <v>0.04823129957551014</v>
+        <v>0.03941215527175656</v>
       </c>
       <c r="AG4">
-        <v>0.01483543976660491</v>
+        <v>0.04017964087611374</v>
       </c>
       <c r="AH4">
-        <v>0.02523179979665223</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.907624185087963E-14</v>
+        <v>1.760949022632377E-14</v>
       </c>
       <c r="AJ4">
-        <v>0.003051367190042135</v>
+        <v>0.003877835364781424</v>
       </c>
       <c r="AN4">
-        <v>0.008066981389054029</v>
+        <v>0.008328937593090275</v>
       </c>
       <c r="AO4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -7208,320 +5502,106 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>44.54509949448062</v>
+        <v>46.70340193417602</v>
       </c>
       <c r="D5">
-        <v>3.257249314604466</v>
+        <v>2.523347521825634</v>
       </c>
       <c r="E5">
-        <v>13.48644839857173</v>
+        <v>10.36237278701141</v>
       </c>
       <c r="F5">
-        <v>6.680722016338868</v>
+        <v>8.657364941777121</v>
       </c>
       <c r="G5">
-        <v>5.15804389249689</v>
+        <v>4.449335017725359</v>
       </c>
       <c r="H5">
-        <v>0.2034256313484462</v>
+        <v>0.2440445622827301</v>
       </c>
       <c r="I5">
-        <v>8.426019547873018</v>
+        <v>12.5735455389584</v>
       </c>
       <c r="J5">
-        <v>14.36578564074252</v>
+        <v>11.69147252340008</v>
       </c>
       <c r="K5">
-        <v>1.873459836009105</v>
+        <v>1.986666047469402</v>
       </c>
       <c r="L5">
-        <v>1.095474488247614</v>
+        <v>0.4797498816851166</v>
       </c>
       <c r="M5">
-        <v>0.8564252554087699</v>
+        <v>0.2092052716402346</v>
       </c>
       <c r="N5">
-        <v>0.01765052341997434</v>
+        <v>0.1194939720484875</v>
       </c>
       <c r="O5">
-        <v>0.03419596045797461</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>0.4099087493463276</v>
+        <v>0.316210337537226</v>
       </c>
       <c r="U5">
-        <v>0.6931904380877832</v>
+        <v>0.4612731481522484</v>
       </c>
       <c r="V5">
-        <v>0.2805452905266993</v>
+        <v>0.2569781774831288</v>
       </c>
       <c r="W5">
-        <v>0.2028889334610315</v>
+        <v>0.1820384565842569</v>
       </c>
       <c r="X5">
-        <v>0.1213572460728369</v>
+        <v>0.1042337162510793</v>
       </c>
       <c r="Y5">
-        <v>0.1388757848351107</v>
+        <v>0.09900118946598123</v>
       </c>
       <c r="Z5">
-        <v>0.1288558759428479</v>
+        <v>0.06000900060533986</v>
       </c>
       <c r="AA5">
-        <v>0.04684139669178446</v>
+        <v>0.237373920450648</v>
       </c>
       <c r="AB5">
-        <v>0.09483592053198371</v>
+        <v>0.1076451988431716</v>
       </c>
       <c r="AC5">
-        <v>0.1664332445279097</v>
+        <v>0.20098712691794</v>
       </c>
       <c r="AD5">
-        <v>0.119346579879169</v>
+        <v>0.1352393633430889</v>
       </c>
       <c r="AE5">
-        <v>0.04128328090699478</v>
+        <v>0.05069083045893186</v>
       </c>
       <c r="AF5">
-        <v>0.04436049421678392</v>
+        <v>0.04897560573481763</v>
       </c>
       <c r="AG5">
-        <v>0.01393707418710012</v>
+        <v>0.02995568250677558</v>
       </c>
       <c r="AH5">
-        <v>0.02996306160477231</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.876128099499278E-14</v>
+        <v>1.798595348621931E-14</v>
       </c>
       <c r="AJ5">
-        <v>0.002814719617455171</v>
+        <v>0.002703600836425462</v>
       </c>
       <c r="AN5">
-        <v>0.008056155508836173</v>
+        <v>0.005684324748296815</v>
       </c>
       <c r="AO5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>45.71929849718943</v>
-      </c>
-      <c r="D6">
-        <v>3.357367263894232</v>
-      </c>
-      <c r="E6">
-        <v>13.06330255238607</v>
-      </c>
-      <c r="F6">
-        <v>6.821589911333911</v>
-      </c>
-      <c r="G6">
-        <v>5.466960941809227</v>
-      </c>
-      <c r="H6">
-        <v>0.1579377042285774</v>
-      </c>
-      <c r="I6">
-        <v>7.84195564650027</v>
-      </c>
-      <c r="J6">
-        <v>12.99651453424014</v>
-      </c>
-      <c r="K6">
-        <v>2.355311897313171</v>
-      </c>
-      <c r="L6">
-        <v>1.683045482897755</v>
-      </c>
-      <c r="M6">
-        <v>0.500915218295208</v>
-      </c>
-      <c r="N6">
-        <v>0.02026638473789975</v>
-      </c>
-      <c r="O6">
-        <v>0.01553396517410214</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0.4189392462143763</v>
-      </c>
-      <c r="U6">
-        <v>0.7198548099503755</v>
-      </c>
-      <c r="V6">
-        <v>0.2641008457178199</v>
-      </c>
-      <c r="W6">
-        <v>0.1462088271557754</v>
-      </c>
-      <c r="X6">
-        <v>0.130051863809875</v>
-      </c>
-      <c r="Y6">
-        <v>0.1913359872162199</v>
-      </c>
-      <c r="Z6">
-        <v>0.1846454548888295</v>
-      </c>
-      <c r="AA6">
-        <v>0.03179931843234333</v>
-      </c>
-      <c r="AB6">
-        <v>0.08311288554397424</v>
-      </c>
-      <c r="AC6">
-        <v>0.1318055998101528</v>
-      </c>
-      <c r="AD6">
-        <v>0.08939880095314699</v>
-      </c>
-      <c r="AE6">
-        <v>0.02650334793879993</v>
-      </c>
-      <c r="AF6">
-        <v>0.06931619947052955</v>
-      </c>
-      <c r="AG6">
-        <v>0.01787807818048226</v>
-      </c>
-      <c r="AH6">
-        <v>0.01447735597596986</v>
-      </c>
-      <c r="AI6">
-        <v>1.901472937475355E-14</v>
-      </c>
-      <c r="AJ6">
-        <v>0.002426703361500355</v>
-      </c>
-      <c r="AN6">
-        <v>0.007176124651517088</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>46.03013849938672</v>
-      </c>
-      <c r="D7">
-        <v>3.232397627178339</v>
-      </c>
-      <c r="E7">
-        <v>13.40932101078216</v>
-      </c>
-      <c r="F7">
-        <v>5.961582794454538</v>
-      </c>
-      <c r="G7">
-        <v>4.874952863306066</v>
-      </c>
-      <c r="H7">
-        <v>0.1773077336015172</v>
-      </c>
-      <c r="I7">
-        <v>7.84978716617543</v>
-      </c>
-      <c r="J7">
-        <v>13.19603693620448</v>
-      </c>
-      <c r="K7">
-        <v>2.420350514517446</v>
-      </c>
-      <c r="L7">
-        <v>2.304713321216791</v>
-      </c>
-      <c r="M7">
-        <v>0.5244732096698658</v>
-      </c>
-      <c r="N7">
-        <v>0.01893832350664887</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>0.4238712452518212</v>
-      </c>
-      <c r="U7">
-        <v>0.7345252156112356</v>
-      </c>
-      <c r="V7">
-        <v>0.1923610234437715</v>
-      </c>
-      <c r="W7">
-        <v>0.05410876061825384</v>
-      </c>
-      <c r="X7">
-        <v>0.09037490616576416</v>
-      </c>
-      <c r="Y7">
-        <v>0.1366980502674437</v>
-      </c>
-      <c r="Z7">
-        <v>0.1295560543281737</v>
-      </c>
-      <c r="AA7">
-        <v>0.02406747070950122</v>
-      </c>
-      <c r="AB7">
-        <v>0.070162937184555</v>
-      </c>
-      <c r="AC7">
-        <v>0.177313886726286</v>
-      </c>
-      <c r="AD7">
-        <v>0.02622828846061919</v>
-      </c>
-      <c r="AE7">
-        <v>0.0444921386168137</v>
-      </c>
-      <c r="AF7">
-        <v>0.05287220049829967</v>
-      </c>
-      <c r="AG7">
-        <v>0.01763279149481097</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1.790069874764781E-14</v>
-      </c>
-      <c r="AJ7">
-        <v>0.001907110561487999</v>
-      </c>
-      <c r="AN7">
-        <v>0.005738425847004989</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
